--- a/rezultati/TAB_dDs_w(m,n,i,p) multiplier: 3.xlsx
+++ b/rezultati/TAB_dDs_w(m,n,i,p) multiplier: 3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="6" uniqueCount="2">
   <si>
     <t>cas_ure</t>
   </si>
@@ -64,7 +64,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B1154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,6 +482,8830 @@
         <v>0.51052976623655477</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0.50923117043767341</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>8.5</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.5097533437183529</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0.51324492702069957</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0.51715215106939616</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>9</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0.5162393140818583</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0.51582763552921385</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0.51968160229333349</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>9.5</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0.52211136122819424</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0.52623004103874726</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0.52949043603730517</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>10</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0.52903408462495949</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>10.166666666666666</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0.5213450714543264</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0.51774385821151803</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>10.5</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0.51784554200083177</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0.51996650715210602</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>10.833333333333334</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0.52259588399937118</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>11</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0.51807994974340055</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>11.166666666666666</v>
+      </c>
+      <c r="B69" s="0">
+        <v>0.51349828773422845</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0.51244567484185966</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>11.5</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0.51310285060403216</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0.51680479381260969</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>11.833333333333334</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0.52196339522310187</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>12</v>
+      </c>
+      <c r="B74" s="0">
+        <v>0.52173121087634911</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>12.166666666666666</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0.51842492368905191</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0.51656554543351729</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>12.5</v>
+      </c>
+      <c r="B77" s="0">
+        <v>0.51781307123558007</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="B78" s="0">
+        <v>0.52028827633691122</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>12.833333333333334</v>
+      </c>
+      <c r="B79" s="0">
+        <v>0.52223019767834256</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>13</v>
+      </c>
+      <c r="B80" s="0">
+        <v>0.51905656530669075</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>13.166666666666666</v>
+      </c>
+      <c r="B81" s="0">
+        <v>0.51542605280921494</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="B82" s="0">
+        <v>0.51356247109015196</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>13.5</v>
+      </c>
+      <c r="B83" s="0">
+        <v>0.51465007629565707</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="B84" s="0">
+        <v>0.51574895501635121</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>13.833333333333334</v>
+      </c>
+      <c r="B85" s="0">
+        <v>0.51871921948508326</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>14</v>
+      </c>
+      <c r="B86" s="0">
+        <v>0.51458534420785462</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>14.166666666666666</v>
+      </c>
+      <c r="B87" s="0">
+        <v>0.51177811589996813</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="B88" s="0">
+        <v>0.51170772952781696</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>14.5</v>
+      </c>
+      <c r="B89" s="0">
+        <v>0.51292550314348973</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="B90" s="0">
+        <v>0.51410881354541493</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>14.833333333333334</v>
+      </c>
+      <c r="B91" s="0">
+        <v>0.51547147102464341</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>15</v>
+      </c>
+      <c r="B92" s="0">
+        <v>0.51204720121353309</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>15.166666666666666</v>
+      </c>
+      <c r="B93" s="0">
+        <v>0.509662607130284</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>15.333333333333334</v>
+      </c>
+      <c r="B94" s="0">
+        <v>0.51024032352047244</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>15.5</v>
+      </c>
+      <c r="B95" s="0">
+        <v>0.5148557245127533</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="B96" s="0">
+        <v>0.51898674340155371</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>15.833333333333334</v>
+      </c>
+      <c r="B97" s="0">
+        <v>0.52174889747115516</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>16</v>
+      </c>
+      <c r="B98" s="0">
+        <v>0.51805461334844893</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>16.166666666666668</v>
+      </c>
+      <c r="B99" s="0">
+        <v>0.51378248606503085</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>16.333333333333332</v>
+      </c>
+      <c r="B100" s="0">
+        <v>0.51419524919722703</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>16.5</v>
+      </c>
+      <c r="B101" s="0">
+        <v>0.51684016218004092</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="B102" s="0">
+        <v>0.52002679782893579</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>16.833333333333332</v>
+      </c>
+      <c r="B103" s="0">
+        <v>0.52199714617035586</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>17</v>
+      </c>
+      <c r="B104" s="0">
+        <v>0.51785896252204256</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>17.166666666666668</v>
+      </c>
+      <c r="B105" s="0">
+        <v>0.51488387862181473</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="B106" s="0">
+        <v>0.51702993389460594</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>17.5</v>
+      </c>
+      <c r="B107" s="0">
+        <v>0.52282087080943629</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="B108" s="0">
+        <v>0.52676401943146922</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>17.833333333333332</v>
+      </c>
+      <c r="B109" s="0">
+        <v>0.52970882411009979</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>18</v>
+      </c>
+      <c r="B110" s="0">
+        <v>0.52734516285498334</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>18.166666666666668</v>
+      </c>
+      <c r="B111" s="0">
+        <v>0.52317281734503174</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>18.333333333333332</v>
+      </c>
+      <c r="B112" s="0">
+        <v>0.52683282725960212</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>18.5</v>
+      </c>
+      <c r="B113" s="0">
+        <v>0.53016693064925047</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="B114" s="0">
+        <v>0.53352977034378302</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>18.833333333333332</v>
+      </c>
+      <c r="B115" s="0">
+        <v>0.5360083090663833</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>19</v>
+      </c>
+      <c r="B116" s="0">
+        <v>0.53333372885963615</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>19.166666666666668</v>
+      </c>
+      <c r="B117" s="0">
+        <v>0.52800481084991191</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>19.333333333333332</v>
+      </c>
+      <c r="B118" s="0">
+        <v>0.52546366912098741</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>19.5</v>
+      </c>
+      <c r="B119" s="0">
+        <v>0.53102548100076463</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>19.666666666666668</v>
+      </c>
+      <c r="B120" s="0">
+        <v>0.53560998110053926</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>19.833333333333332</v>
+      </c>
+      <c r="B121" s="0">
+        <v>0.53879135889550578</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>20</v>
+      </c>
+      <c r="B122" s="0">
+        <v>0.53997970379704019</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>20.166666666666668</v>
+      </c>
+      <c r="B123" s="0">
+        <v>0.53969830107931971</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="B124" s="0">
+        <v>0.53786634937142441</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="B125" s="0">
+        <v>0.53863931147820665</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>20.666666666666668</v>
+      </c>
+      <c r="B126" s="0">
+        <v>0.54201014804443326</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>20.833333333333332</v>
+      </c>
+      <c r="B127" s="0">
+        <v>0.54492508159273967</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>21</v>
+      </c>
+      <c r="B128" s="0">
+        <v>0.54200873270625394</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>21.166666666666668</v>
+      </c>
+      <c r="B129" s="0">
+        <v>0.53577979221825622</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>21.333333333333332</v>
+      </c>
+      <c r="B130" s="0">
+        <v>0.53351037803781276</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="B131" s="0">
+        <v>0.53352276302279966</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="B132" s="0">
+        <v>0.5345780893768245</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>21.833333333333332</v>
+      </c>
+      <c r="B133" s="0">
+        <v>0.53593111951148631</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>22</v>
+      </c>
+      <c r="B134" s="0">
+        <v>0.53315656026370373</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>22.166666666666668</v>
+      </c>
+      <c r="B135" s="0">
+        <v>0.52888343157216522</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="B136" s="0">
+        <v>0.52749358772816557</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="B137" s="0">
+        <v>0.5288925200344845</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0">
+        <v>22.666666666666668</v>
+      </c>
+      <c r="B138" s="0">
+        <v>0.53066891532944149</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0">
+        <v>22.833333333333332</v>
+      </c>
+      <c r="B139" s="0">
+        <v>0.53555319980007543</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0">
+        <v>23</v>
+      </c>
+      <c r="B140" s="0">
+        <v>0.53769230139171442</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0">
+        <v>23.166666666666668</v>
+      </c>
+      <c r="B141" s="0">
+        <v>0.53554366585994218</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="B142" s="0">
+        <v>0.53319909366664175</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="B143" s="0">
+        <v>0.53421402382021532</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0">
+        <v>23.666666666666668</v>
+      </c>
+      <c r="B144" s="0">
+        <v>0.53721202032481608</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0">
+        <v>23.833333333333332</v>
+      </c>
+      <c r="B145" s="0">
+        <v>0.5398859306176188</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0">
+        <v>24</v>
+      </c>
+      <c r="B146" s="0">
+        <v>0.54205387376760728</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0">
+        <v>24.166666666666668</v>
+      </c>
+      <c r="B147" s="0">
+        <v>0.54068436401725484</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0">
+        <v>24.333333333333332</v>
+      </c>
+      <c r="B148" s="0">
+        <v>0.53912593243871565</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0">
+        <v>24.5</v>
+      </c>
+      <c r="B149" s="0">
+        <v>0.54270668189980909</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="B150" s="0">
+        <v>0.54609144374502927</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0">
+        <v>24.833333333333332</v>
+      </c>
+      <c r="B151" s="0">
+        <v>0.54848099391458249</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0">
+        <v>25</v>
+      </c>
+      <c r="B152" s="0">
+        <v>0.5476147534497644</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0">
+        <v>25.166666666666668</v>
+      </c>
+      <c r="B153" s="0">
+        <v>0.54527380437320672</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0">
+        <v>25.333333333333332</v>
+      </c>
+      <c r="B154" s="0">
+        <v>0.5453191332916304</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0">
+        <v>25.5</v>
+      </c>
+      <c r="B155" s="0">
+        <v>0.54822975467091761</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0">
+        <v>25.666666666666668</v>
+      </c>
+      <c r="B156" s="0">
+        <v>0.55172160098805023</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0">
+        <v>25.833333333333332</v>
+      </c>
+      <c r="B157" s="0">
+        <v>0.55363131684855382</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0">
+        <v>26</v>
+      </c>
+      <c r="B158" s="0">
+        <v>0.55438309379184247</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0">
+        <v>26.166666666666668</v>
+      </c>
+      <c r="B159" s="0">
+        <v>0.55479863058629586</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0">
+        <v>26.333333333333332</v>
+      </c>
+      <c r="B160" s="0">
+        <v>0.55501831790763634</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0">
+        <v>26.5</v>
+      </c>
+      <c r="B161" s="0">
+        <v>0.5550752375562108</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="B162" s="0">
+        <v>0.55498391182363516</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0">
+        <v>26.833333333333332</v>
+      </c>
+      <c r="B163" s="0">
+        <v>0.55474840620871391</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0">
+        <v>27</v>
+      </c>
+      <c r="B164" s="0">
+        <v>0.55423709166995572</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0">
+        <v>27.166666666666668</v>
+      </c>
+      <c r="B165" s="0">
+        <v>0.55346076365535379</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0">
+        <v>27.333333333333332</v>
+      </c>
+      <c r="B166" s="0">
+        <v>0.55247923396360954</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0">
+        <v>27.5</v>
+      </c>
+      <c r="B167" s="0">
+        <v>0.55137174075263895</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0">
+        <v>27.666666666666668</v>
+      </c>
+      <c r="B168" s="0">
+        <v>0.5501494809700066</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0">
+        <v>27.833333333333332</v>
+      </c>
+      <c r="B169" s="0">
+        <v>0.54882752125639545</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0">
+        <v>28</v>
+      </c>
+      <c r="B170" s="0">
+        <v>0.5474223384938256</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0">
+        <v>28.166666666666668</v>
+      </c>
+      <c r="B171" s="0">
+        <v>0.54594286448684359</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0">
+        <v>28.333333333333332</v>
+      </c>
+      <c r="B172" s="0">
+        <v>0.54439566158196473</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0">
+        <v>28.5</v>
+      </c>
+      <c r="B173" s="0">
+        <v>0.54279056563246475</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0">
+        <v>28.666666666666668</v>
+      </c>
+      <c r="B174" s="0">
+        <v>0.54114916383471057</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="B175" s="0">
+        <v>0.53946886940720806</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0">
+        <v>29</v>
+      </c>
+      <c r="B176" s="0">
+        <v>0.53774245292811529</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="B177" s="0">
+        <v>0.53592870641438151</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0">
+        <v>29.333333333333332</v>
+      </c>
+      <c r="B178" s="0">
+        <v>0.53414140325699211</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0">
+        <v>29.5</v>
+      </c>
+      <c r="B179" s="0">
+        <v>0.53572051031208012</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0">
+        <v>29.666666666666668</v>
+      </c>
+      <c r="B180" s="0">
+        <v>0.53891402197629668</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0">
+        <v>29.833333333333332</v>
+      </c>
+      <c r="B181" s="0">
+        <v>0.54246719963811507</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0">
+        <v>30</v>
+      </c>
+      <c r="B182" s="0">
+        <v>0.53884657506258249</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0">
+        <v>30.166666666666668</v>
+      </c>
+      <c r="B183" s="0">
+        <v>0.53616810279197835</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0">
+        <v>30.333333333333332</v>
+      </c>
+      <c r="B184" s="0">
+        <v>0.53810885684728671</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0">
+        <v>30.5</v>
+      </c>
+      <c r="B185" s="0">
+        <v>0.54081398501270572</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0">
+        <v>30.666666666666668</v>
+      </c>
+      <c r="B186" s="0">
+        <v>0.54375115890751147</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0">
+        <v>30.833333333333332</v>
+      </c>
+      <c r="B187" s="0">
+        <v>0.54653506691014964</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0">
+        <v>31</v>
+      </c>
+      <c r="B188" s="0">
+        <v>0.54452734721443341</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0">
+        <v>31.166666666666668</v>
+      </c>
+      <c r="B189" s="0">
+        <v>0.53953753546586825</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0">
+        <v>31.333333333333332</v>
+      </c>
+      <c r="B190" s="0">
+        <v>0.53740279902462929</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0">
+        <v>31.5</v>
+      </c>
+      <c r="B191" s="0">
+        <v>0.53863848929149072</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0">
+        <v>31.666666666666668</v>
+      </c>
+      <c r="B192" s="0">
+        <v>0.54133564967251335</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0">
+        <v>31.833333333333332</v>
+      </c>
+      <c r="B193" s="0">
+        <v>0.54459123385069963</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0">
+        <v>32</v>
+      </c>
+      <c r="B194" s="0">
+        <v>0.54280633086490893</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0">
+        <v>32.166666666666664</v>
+      </c>
+      <c r="B195" s="0">
+        <v>0.53894469935324196</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0">
+        <v>32.333333333333336</v>
+      </c>
+      <c r="B196" s="0">
+        <v>0.53682209165975792</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="B197" s="0">
+        <v>0.53782445501845433</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0">
+        <v>32.666666666666664</v>
+      </c>
+      <c r="B198" s="0">
+        <v>0.54071205890503937</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0">
+        <v>32.833333333333336</v>
+      </c>
+      <c r="B199" s="0">
+        <v>0.54379236921266028</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0">
+        <v>33</v>
+      </c>
+      <c r="B200" s="0">
+        <v>0.54043201405414476</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0">
+        <v>33.166666666666664</v>
+      </c>
+      <c r="B201" s="0">
+        <v>0.53552504633436493</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="B202" s="0">
+        <v>0.53453617026165234</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="B203" s="0">
+        <v>0.53539255935897212</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0">
+        <v>33.666666666666664</v>
+      </c>
+      <c r="B204" s="0">
+        <v>0.53716323118478126</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0">
+        <v>33.833333333333336</v>
+      </c>
+      <c r="B205" s="0">
+        <v>0.53941149989733817</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0">
+        <v>34</v>
+      </c>
+      <c r="B206" s="0">
+        <v>0.53815929980877408</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0">
+        <v>34.166666666666664</v>
+      </c>
+      <c r="B207" s="0">
+        <v>0.53704979579288548</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0">
+        <v>34.333333333333336</v>
+      </c>
+      <c r="B208" s="0">
+        <v>0.53873899959817995</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="B209" s="0">
+        <v>0.54258597049316648</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0">
+        <v>34.666666666666664</v>
+      </c>
+      <c r="B210" s="0">
+        <v>0.54559348677580533</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0">
+        <v>34.833333333333336</v>
+      </c>
+      <c r="B211" s="0">
+        <v>0.54925245467843453</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0">
+        <v>35</v>
+      </c>
+      <c r="B212" s="0">
+        <v>0.54621438450099935</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0">
+        <v>35.166666666666664</v>
+      </c>
+      <c r="B213" s="0">
+        <v>0.54120741560459518</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0">
+        <v>35.333333333333336</v>
+      </c>
+      <c r="B214" s="0">
+        <v>0.53903574247050645</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0">
+        <v>35.5</v>
+      </c>
+      <c r="B215" s="0">
+        <v>0.53951246069864067</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0">
+        <v>35.666666666666664</v>
+      </c>
+      <c r="B216" s="0">
+        <v>0.54177669104831405</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0">
+        <v>35.833333333333336</v>
+      </c>
+      <c r="B217" s="0">
+        <v>0.5439759255840082</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0">
+        <v>36</v>
+      </c>
+      <c r="B218" s="0">
+        <v>0.54059030834398381</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0">
+        <v>36.166666666666664</v>
+      </c>
+      <c r="B219" s="0">
+        <v>0.53611034557740278</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0">
+        <v>36.333333333333336</v>
+      </c>
+      <c r="B220" s="0">
+        <v>0.53463788820646529</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0">
+        <v>36.5</v>
+      </c>
+      <c r="B221" s="0">
+        <v>0.53582054223144859</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="B222" s="0">
+        <v>0.53659770109157678</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0">
+        <v>36.833333333333336</v>
+      </c>
+      <c r="B223" s="0">
+        <v>0.53863431386982918</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0">
+        <v>37</v>
+      </c>
+      <c r="B224" s="0">
+        <v>0.53577199665795461</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0">
+        <v>37.166666666666664</v>
+      </c>
+      <c r="B225" s="0">
+        <v>0.53278276635198252</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0">
+        <v>37.333333333333336</v>
+      </c>
+      <c r="B226" s="0">
+        <v>0.53271488129186806</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="B227" s="0">
+        <v>0.5350686301045624</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0">
+        <v>37.666666666666664</v>
+      </c>
+      <c r="B228" s="0">
+        <v>0.5373033187109163</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0">
+        <v>37.833333333333336</v>
+      </c>
+      <c r="B229" s="0">
+        <v>0.53966387089724766</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0">
+        <v>38</v>
+      </c>
+      <c r="B230" s="0">
+        <v>0.53684425685707193</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0">
+        <v>38.166666666666664</v>
+      </c>
+      <c r="B231" s="0">
+        <v>0.53315888863275807</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0">
+        <v>38.333333333333336</v>
+      </c>
+      <c r="B232" s="0">
+        <v>0.53414788917077638</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0">
+        <v>38.5</v>
+      </c>
+      <c r="B233" s="0">
+        <v>0.53695260954683643</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0">
+        <v>38.666666666666664</v>
+      </c>
+      <c r="B234" s="0">
+        <v>0.54131496414679592</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0">
+        <v>38.833333333333336</v>
+      </c>
+      <c r="B235" s="0">
+        <v>0.54465328722178907</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0">
+        <v>39</v>
+      </c>
+      <c r="B236" s="0">
+        <v>0.54102218606204133</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0">
+        <v>39.166666666666664</v>
+      </c>
+      <c r="B237" s="0">
+        <v>0.53632083694148658</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0">
+        <v>39.333333333333336</v>
+      </c>
+      <c r="B238" s="0">
+        <v>0.53487018564384004</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0">
+        <v>39.5</v>
+      </c>
+      <c r="B239" s="0">
+        <v>0.53595505232870855</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0">
+        <v>39.666666666666664</v>
+      </c>
+      <c r="B240" s="0">
+        <v>0.53847711693118272</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0">
+        <v>39.833333333333336</v>
+      </c>
+      <c r="B241" s="0">
+        <v>0.54121440632494278</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0">
+        <v>40</v>
+      </c>
+      <c r="B242" s="0">
+        <v>0.53777872575214158</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0">
+        <v>40.166666666666664</v>
+      </c>
+      <c r="B243" s="0">
+        <v>0.53383225794598788</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0">
+        <v>40.333333333333336</v>
+      </c>
+      <c r="B244" s="0">
+        <v>0.53257044228192252</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0">
+        <v>40.5</v>
+      </c>
+      <c r="B245" s="0">
+        <v>0.53359733456008141</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0">
+        <v>40.666666666666664</v>
+      </c>
+      <c r="B246" s="0">
+        <v>0.53596418411898306</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0">
+        <v>40.833333333333336</v>
+      </c>
+      <c r="B247" s="0">
+        <v>0.53888944107342696</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0">
+        <v>41</v>
+      </c>
+      <c r="B248" s="0">
+        <v>0.53593995580577714</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0">
+        <v>41.166666666666664</v>
+      </c>
+      <c r="B249" s="0">
+        <v>0.53261760661584645</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0">
+        <v>41.333333333333336</v>
+      </c>
+      <c r="B250" s="0">
+        <v>0.53140720895647653</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>41.5</v>
+      </c>
+      <c r="B251" s="0">
+        <v>0.53277742888308688</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>41.666666666666664</v>
+      </c>
+      <c r="B252" s="0">
+        <v>0.5355921740394024</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>41.833333333333336</v>
+      </c>
+      <c r="B253" s="0">
+        <v>0.53855761888541143</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>42</v>
+      </c>
+      <c r="B254" s="0">
+        <v>0.53567787297086045</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>42.166666666666664</v>
+      </c>
+      <c r="B255" s="0">
+        <v>0.53149440428287287</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="B256" s="0">
+        <v>0.53085012042184077</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>42.5</v>
+      </c>
+      <c r="B257" s="0">
+        <v>0.53233159210109826</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>42.666666666666664</v>
+      </c>
+      <c r="B258" s="0">
+        <v>0.53422607573867831</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>42.833333333333336</v>
+      </c>
+      <c r="B259" s="0">
+        <v>0.53638243566395749</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>43</v>
+      </c>
+      <c r="B260" s="0">
+        <v>0.53426107485687735</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>43.166666666666664</v>
+      </c>
+      <c r="B261" s="0">
+        <v>0.53057908123079767</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="B262" s="0">
+        <v>0.53009218580982931</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>43.5</v>
+      </c>
+      <c r="B263" s="0">
+        <v>0.53157859858360035</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>43.666666666666664</v>
+      </c>
+      <c r="B264" s="0">
+        <v>0.53402935815836639</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>43.833333333333336</v>
+      </c>
+      <c r="B265" s="0">
+        <v>0.53635450728829814</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>44</v>
+      </c>
+      <c r="B266" s="0">
+        <v>0.5345406520178605</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="B267" s="0">
+        <v>0.53652871233536659</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>44.333333333333336</v>
+      </c>
+      <c r="B268" s="0">
+        <v>0.53636454346184304</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>44.5</v>
+      </c>
+      <c r="B269" s="0">
+        <v>0.53812300100134947</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>44.666666666666664</v>
+      </c>
+      <c r="B270" s="0">
+        <v>0.54093412536797691</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>44.833333333333336</v>
+      </c>
+      <c r="B271" s="0">
+        <v>0.54427404524962597</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>45</v>
+      </c>
+      <c r="B272" s="0">
+        <v>0.54194946500508911</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>45.166666666666664</v>
+      </c>
+      <c r="B273" s="0">
+        <v>0.53855700483657354</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>45.333333333333336</v>
+      </c>
+      <c r="B274" s="0">
+        <v>0.53893039616626803</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>45.5</v>
+      </c>
+      <c r="B275" s="0">
+        <v>0.54182713899038437</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="B276" s="0">
+        <v>0.54490807482735448</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="B277" s="0">
+        <v>0.54819848208552169</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>46</v>
+      </c>
+      <c r="B278" s="0">
+        <v>0.54573040536216222</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>46.166666666666664</v>
+      </c>
+      <c r="B279" s="0">
+        <v>0.54172670992814298</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>46.333333333333336</v>
+      </c>
+      <c r="B280" s="0">
+        <v>0.54004297245002963</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>46.5</v>
+      </c>
+      <c r="B281" s="0">
+        <v>0.541017758828226</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="B282" s="0">
+        <v>0.54305067600574952</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>46.833333333333336</v>
+      </c>
+      <c r="B283" s="0">
+        <v>0.54602974600483889</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>47</v>
+      </c>
+      <c r="B284" s="0">
+        <v>0.54325637371104119</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>47.166666666666664</v>
+      </c>
+      <c r="B285" s="0">
+        <v>0.53882271318192299</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="B286" s="0">
+        <v>0.53695693657676036</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>47.5</v>
+      </c>
+      <c r="B287" s="0">
+        <v>0.53810001131694574</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>47.666666666666664</v>
+      </c>
+      <c r="B288" s="0">
+        <v>0.54040746344669721</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>47.833333333333336</v>
+      </c>
+      <c r="B289" s="0">
+        <v>0.54320019035276113</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>48</v>
+      </c>
+      <c r="B290" s="0">
+        <v>0.54025967384360385</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>48.166666666666664</v>
+      </c>
+      <c r="B291" s="0">
+        <v>0.53621025486323293</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>48.333333333333336</v>
+      </c>
+      <c r="B292" s="0">
+        <v>0.53520128164753389</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>48.5</v>
+      </c>
+      <c r="B293" s="0">
+        <v>0.53666477818277802</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>48.666666666666664</v>
+      </c>
+      <c r="B294" s="0">
+        <v>0.53918363277875803</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>48.833333333333336</v>
+      </c>
+      <c r="B295" s="0">
+        <v>0.54189666118677704</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>49</v>
+      </c>
+      <c r="B296" s="0">
+        <v>0.53942547971258614</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>49.166666666666664</v>
+      </c>
+      <c r="B297" s="0">
+        <v>0.53692277640736863</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>49.333333333333336</v>
+      </c>
+      <c r="B298" s="0">
+        <v>0.54174210821885427</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>49.5</v>
+      </c>
+      <c r="B299" s="0">
+        <v>0.54810055479991493</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>49.666666666666664</v>
+      </c>
+      <c r="B300" s="0">
+        <v>0.5528358132815342</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>49.833333333333336</v>
+      </c>
+      <c r="B301" s="0">
+        <v>0.5560763737759099</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>50</v>
+      </c>
+      <c r="B302" s="0">
+        <v>0.5564194106613829</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>50.166666666666664</v>
+      </c>
+      <c r="B303" s="0">
+        <v>0.55257154544320519</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>50.333333333333336</v>
+      </c>
+      <c r="B304" s="0">
+        <v>0.55035810774127203</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>50.5</v>
+      </c>
+      <c r="B305" s="0">
+        <v>0.55214067166674818</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>50.666666666666664</v>
+      </c>
+      <c r="B306" s="0">
+        <v>0.555266843429988</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>50.833333333333336</v>
+      </c>
+      <c r="B307" s="0">
+        <v>0.55807175198781356</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>51</v>
+      </c>
+      <c r="B308" s="0">
+        <v>0.55478587570771598</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>51.166666666666664</v>
+      </c>
+      <c r="B309" s="0">
+        <v>0.54958849592264114</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>51.333333333333336</v>
+      </c>
+      <c r="B310" s="0">
+        <v>0.54859931271514328</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>51.5</v>
+      </c>
+      <c r="B311" s="0">
+        <v>0.54884061656803351</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>51.666666666666664</v>
+      </c>
+      <c r="B312" s="0">
+        <v>0.55056907156813739</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>51.833333333333336</v>
+      </c>
+      <c r="B313" s="0">
+        <v>0.55356490031262984</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>52</v>
+      </c>
+      <c r="B314" s="0">
+        <v>0.55342264123155638</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>52.166666666666664</v>
+      </c>
+      <c r="B315" s="0">
+        <v>0.55705101425171333</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>52.333333333333336</v>
+      </c>
+      <c r="B316" s="0">
+        <v>0.55983698758361378</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>52.5</v>
+      </c>
+      <c r="B317" s="0">
+        <v>0.5622103523743881</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>52.666666666666664</v>
+      </c>
+      <c r="B318" s="0">
+        <v>0.56502674222080662</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>52.833333333333336</v>
+      </c>
+      <c r="B319" s="0">
+        <v>0.56745372227243496</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>53</v>
+      </c>
+      <c r="B320" s="0">
+        <v>0.56746656545605689</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>53.166666666666664</v>
+      </c>
+      <c r="B321" s="0">
+        <v>0.56318654362042775</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="B322" s="0">
+        <v>0.56033269549754949</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>53.5</v>
+      </c>
+      <c r="B323" s="0">
+        <v>0.56223498480969858</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>53.666666666666664</v>
+      </c>
+      <c r="B324" s="0">
+        <v>0.56518868810433476</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>53.833333333333336</v>
+      </c>
+      <c r="B325" s="0">
+        <v>0.56741467232717946</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>54</v>
+      </c>
+      <c r="B326" s="0">
+        <v>0.56375889566088511</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>54.166666666666664</v>
+      </c>
+      <c r="B327" s="0">
+        <v>0.55817460538093111</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>54.333333333333336</v>
+      </c>
+      <c r="B328" s="0">
+        <v>0.55611643968322355</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>54.5</v>
+      </c>
+      <c r="B329" s="0">
+        <v>0.55718141680931099</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>54.666666666666664</v>
+      </c>
+      <c r="B330" s="0">
+        <v>0.56015917222920653</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>54.833333333333336</v>
+      </c>
+      <c r="B331" s="0">
+        <v>0.56318221185191386</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>55</v>
+      </c>
+      <c r="B332" s="0">
+        <v>0.56045929736325151</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>55.166666666666664</v>
+      </c>
+      <c r="B333" s="0">
+        <v>0.55531886894632221</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>55.333333333333336</v>
+      </c>
+      <c r="B334" s="0">
+        <v>0.55314672345255045</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>55.5</v>
+      </c>
+      <c r="B335" s="0">
+        <v>0.55420360358799914</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>55.666666666666664</v>
+      </c>
+      <c r="B336" s="0">
+        <v>0.55702904499741335</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>55.833333333333336</v>
+      </c>
+      <c r="B337" s="0">
+        <v>0.56002990958131116</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>56</v>
+      </c>
+      <c r="B338" s="0">
+        <v>0.55764494005303711</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>56.166666666666664</v>
+      </c>
+      <c r="B339" s="0">
+        <v>0.55263862816184339</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>56.333333333333336</v>
+      </c>
+      <c r="B340" s="0">
+        <v>0.55061355929114431</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>56.5</v>
+      </c>
+      <c r="B341" s="0">
+        <v>0.55176345112516023</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="B342" s="0">
+        <v>0.55438929668251702</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>56.833333333333336</v>
+      </c>
+      <c r="B343" s="0">
+        <v>0.55744449595653189</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>57</v>
+      </c>
+      <c r="B344" s="0">
+        <v>0.5551866942168624</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>57.166666666666664</v>
+      </c>
+      <c r="B345" s="0">
+        <v>0.55052441558891752</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>57.333333333333336</v>
+      </c>
+      <c r="B346" s="0">
+        <v>0.55063911628299955</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>57.5</v>
+      </c>
+      <c r="B347" s="0">
+        <v>0.55404521364695924</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="B348" s="0">
+        <v>0.55782054166495376</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>57.833333333333336</v>
+      </c>
+      <c r="B349" s="0">
+        <v>0.56130625906051324</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>58</v>
+      </c>
+      <c r="B350" s="0">
+        <v>0.55920532483383456</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>58.166666666666664</v>
+      </c>
+      <c r="B351" s="0">
+        <v>0.55548806644090987</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="B352" s="0">
+        <v>0.55761516596676675</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>58.5</v>
+      </c>
+      <c r="B353" s="0">
+        <v>0.56203858980728572</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>58.666666666666664</v>
+      </c>
+      <c r="B354" s="0">
+        <v>0.56455557776291432</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>58.833333333333336</v>
+      </c>
+      <c r="B355" s="0">
+        <v>0.56703978022547397</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>59</v>
+      </c>
+      <c r="B356" s="0">
+        <v>0.56506352213266986</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>59.166666666666664</v>
+      </c>
+      <c r="B357" s="0">
+        <v>0.55999716787870968</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="B358" s="0">
+        <v>0.55760938776788749</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>59.5</v>
+      </c>
+      <c r="B359" s="0">
+        <v>0.5580138052596848</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>59.666666666666664</v>
+      </c>
+      <c r="B360" s="0">
+        <v>0.56045834460544686</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>59.833333333333336</v>
+      </c>
+      <c r="B361" s="0">
+        <v>0.56317415390904935</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>60</v>
+      </c>
+      <c r="B362" s="0">
+        <v>0.56109302744919909</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>60.166666666666664</v>
+      </c>
+      <c r="B363" s="0">
+        <v>0.55584601125006916</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>60.333333333333336</v>
+      </c>
+      <c r="B364" s="0">
+        <v>0.55353192457719191</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>60.5</v>
+      </c>
+      <c r="B365" s="0">
+        <v>0.554671590667557</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>60.666666666666664</v>
+      </c>
+      <c r="B366" s="0">
+        <v>0.55717251845275295</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>60.833333333333336</v>
+      </c>
+      <c r="B367" s="0">
+        <v>0.5598307736495467</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>61</v>
+      </c>
+      <c r="B368" s="0">
+        <v>0.55865191707751583</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>61.166666666666664</v>
+      </c>
+      <c r="B369" s="0">
+        <v>0.55457975767099543</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>61.333333333333336</v>
+      </c>
+      <c r="B370" s="0">
+        <v>0.55274515082474784</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>61.5</v>
+      </c>
+      <c r="B371" s="0">
+        <v>0.5540285125675769</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>61.666666666666664</v>
+      </c>
+      <c r="B372" s="0">
+        <v>0.55663228085288918</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>61.833333333333336</v>
+      </c>
+      <c r="B373" s="0">
+        <v>0.5594787269188789</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>62</v>
+      </c>
+      <c r="B374" s="0">
+        <v>0.55766027587986544</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>62.166666666666664</v>
+      </c>
+      <c r="B375" s="0">
+        <v>0.55302808475382126</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>62.333333333333336</v>
+      </c>
+      <c r="B376" s="0">
+        <v>0.5551839035334234</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>62.5</v>
+      </c>
+      <c r="B377" s="0">
+        <v>0.55901172726075543</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>62.666666666666664</v>
+      </c>
+      <c r="B378" s="0">
+        <v>0.56290476848933635</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>62.833333333333336</v>
+      </c>
+      <c r="B379" s="0">
+        <v>0.5669591349935077</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>63</v>
+      </c>
+      <c r="B380" s="0">
+        <v>0.56548087114924695</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>63.166666666666664</v>
+      </c>
+      <c r="B381" s="0">
+        <v>0.55964189287745758</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="B382" s="0">
+        <v>0.55707595574294366</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>63.5</v>
+      </c>
+      <c r="B383" s="0">
+        <v>0.55736416103678421</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>63.666666666666664</v>
+      </c>
+      <c r="B384" s="0">
+        <v>0.55928363650154411</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>63.833333333333336</v>
+      </c>
+      <c r="B385" s="0">
+        <v>0.56172007323691131</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>64</v>
+      </c>
+      <c r="B386" s="0">
+        <v>0.55957882432713058</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>64.166666666666672</v>
+      </c>
+      <c r="B387" s="0">
+        <v>0.55539267354641209</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>64.333333333333329</v>
+      </c>
+      <c r="B388" s="0">
+        <v>0.55373592913803771</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>64.5</v>
+      </c>
+      <c r="B389" s="0">
+        <v>0.55473014081240801</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>64.666666666666672</v>
+      </c>
+      <c r="B390" s="0">
+        <v>0.55715092392544374</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>64.833333333333329</v>
+      </c>
+      <c r="B391" s="0">
+        <v>0.5597143104633</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>65</v>
+      </c>
+      <c r="B392" s="0">
+        <v>0.55745639832096716</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>65.166666666666672</v>
+      </c>
+      <c r="B393" s="0">
+        <v>0.55220755409676026</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="B394" s="0">
+        <v>0.55133384420136278</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>65.5</v>
+      </c>
+      <c r="B395" s="0">
+        <v>0.55263531371050556</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>65.666666666666672</v>
+      </c>
+      <c r="B396" s="0">
+        <v>0.55512215931249132</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>65.833333333333329</v>
+      </c>
+      <c r="B397" s="0">
+        <v>0.55813778789602919</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>66</v>
+      </c>
+      <c r="B398" s="0">
+        <v>0.55651628161733857</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>66.166666666666672</v>
+      </c>
+      <c r="B399" s="0">
+        <v>0.55242113386930358</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>66.333333333333329</v>
+      </c>
+      <c r="B400" s="0">
+        <v>0.55701981717304883</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>66.5</v>
+      </c>
+      <c r="B401" s="0">
+        <v>0.56143288170662176</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>66.666666666666672</v>
+      </c>
+      <c r="B402" s="0">
+        <v>0.56543786105952076</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>66.833333333333329</v>
+      </c>
+      <c r="B403" s="0">
+        <v>0.56844613504138619</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>67</v>
+      </c>
+      <c r="B404" s="0">
+        <v>0.56880213804366153</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>67.166666666666672</v>
+      </c>
+      <c r="B405" s="0">
+        <v>0.56368629560777994</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>67.333333333333329</v>
+      </c>
+      <c r="B406" s="0">
+        <v>0.56449249349436159</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>67.5</v>
+      </c>
+      <c r="B407" s="0">
+        <v>0.56923763066165378</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>67.666666666666672</v>
+      </c>
+      <c r="B408" s="0">
+        <v>0.57236991485461841</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>67.833333333333329</v>
+      </c>
+      <c r="B409" s="0">
+        <v>0.57497268431989379</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>68</v>
+      </c>
+      <c r="B410" s="0">
+        <v>0.57382589204316958</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>68.166666666666672</v>
+      </c>
+      <c r="B411" s="0">
+        <v>0.56953376117461085</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>68.333333333333329</v>
+      </c>
+      <c r="B412" s="0">
+        <v>0.56740847327398181</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>68.5</v>
+      </c>
+      <c r="B413" s="0">
+        <v>0.56841587301597207</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>68.666666666666672</v>
+      </c>
+      <c r="B414" s="0">
+        <v>0.57095978233156253</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>68.833333333333329</v>
+      </c>
+      <c r="B415" s="0">
+        <v>0.57401022280115477</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>69</v>
+      </c>
+      <c r="B416" s="0">
+        <v>0.57300829505862561</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>69.166666666666672</v>
+      </c>
+      <c r="B417" s="0">
+        <v>0.56781406040599947</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>69.333333333333329</v>
+      </c>
+      <c r="B418" s="0">
+        <v>0.56512880571925472</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>69.5</v>
+      </c>
+      <c r="B419" s="0">
+        <v>0.56582125494686375</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>69.666666666666672</v>
+      </c>
+      <c r="B420" s="0">
+        <v>0.56812190090441617</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>69.833333333333329</v>
+      </c>
+      <c r="B421" s="0">
+        <v>0.57110359833714852</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>70</v>
+      </c>
+      <c r="B422" s="0">
+        <v>0.56936858397173096</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>70.166666666666672</v>
+      </c>
+      <c r="B423" s="0">
+        <v>0.56418728676486529</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>70.333333333333329</v>
+      </c>
+      <c r="B424" s="0">
+        <v>0.56291201779414946</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>70.5</v>
+      </c>
+      <c r="B425" s="0">
+        <v>0.56371029201035039</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>70.666666666666672</v>
+      </c>
+      <c r="B426" s="0">
+        <v>0.56648576222449665</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>70.833333333333329</v>
+      </c>
+      <c r="B427" s="0">
+        <v>0.56864314151816264</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>71</v>
+      </c>
+      <c r="B428" s="0">
+        <v>0.56767844297147763</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>71.166666666666672</v>
+      </c>
+      <c r="B429" s="0">
+        <v>0.56420832768407514</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>71.333333333333329</v>
+      </c>
+      <c r="B430" s="0">
+        <v>0.56426113336676298</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>71.5</v>
+      </c>
+      <c r="B431" s="0">
+        <v>0.56599978738917878</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>71.666666666666672</v>
+      </c>
+      <c r="B432" s="0">
+        <v>0.56814740918325901</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>71.833333333333329</v>
+      </c>
+      <c r="B433" s="0">
+        <v>0.57096050548050192</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>72</v>
+      </c>
+      <c r="B434" s="0">
+        <v>0.56916389855974125</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>72.166666666666672</v>
+      </c>
+      <c r="B435" s="0">
+        <v>0.56561446980960794</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="B436" s="0">
+        <v>0.56378136882950514</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>72.5</v>
+      </c>
+      <c r="B437" s="0">
+        <v>0.56494131324544783</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>72.666666666666672</v>
+      </c>
+      <c r="B438" s="0">
+        <v>0.56719591223771593</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>72.833333333333329</v>
+      </c>
+      <c r="B439" s="0">
+        <v>0.56965305227346119</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>73</v>
+      </c>
+      <c r="B440" s="0">
+        <v>0.56982922597103947</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>73.166666666666672</v>
+      </c>
+      <c r="B441" s="0">
+        <v>0.56499789248599941</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="B442" s="0">
+        <v>0.56388971874063931</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>73.5</v>
+      </c>
+      <c r="B443" s="0">
+        <v>0.5658294033055169</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>73.666666666666672</v>
+      </c>
+      <c r="B444" s="0">
+        <v>0.56951300181745834</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>73.833333333333329</v>
+      </c>
+      <c r="B445" s="0">
+        <v>0.57291513394647708</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>74</v>
+      </c>
+      <c r="B446" s="0">
+        <v>0.57129124858683744</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>74.166666666666672</v>
+      </c>
+      <c r="B447" s="0">
+        <v>0.56615235603288894</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>74.333333333333329</v>
+      </c>
+      <c r="B448" s="0">
+        <v>0.56431645866556079</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>74.5</v>
+      </c>
+      <c r="B449" s="0">
+        <v>0.5658285796606426</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>74.666666666666672</v>
+      </c>
+      <c r="B450" s="0">
+        <v>0.56839903352694132</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>74.833333333333329</v>
+      </c>
+      <c r="B451" s="0">
+        <v>0.57122984980937408</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>75</v>
+      </c>
+      <c r="B452" s="0">
+        <v>0.56939226342295768</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>75.166666666666672</v>
+      </c>
+      <c r="B453" s="0">
+        <v>0.56500098715888536</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>75.333333333333329</v>
+      </c>
+      <c r="B454" s="0">
+        <v>0.5637138989972601</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>75.5</v>
+      </c>
+      <c r="B455" s="0">
+        <v>0.56460696057336213</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>75.666666666666672</v>
+      </c>
+      <c r="B456" s="0">
+        <v>0.56599084818790202</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>75.833333333333329</v>
+      </c>
+      <c r="B457" s="0">
+        <v>0.56830046025918413</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>76</v>
+      </c>
+      <c r="B458" s="0">
+        <v>0.56714163291812414</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>76.166666666666672</v>
+      </c>
+      <c r="B459" s="0">
+        <v>0.56379871544290072</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>76.333333333333329</v>
+      </c>
+      <c r="B460" s="0">
+        <v>0.56287536264726879</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>76.5</v>
+      </c>
+      <c r="B461" s="0">
+        <v>0.5638532171465529</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>76.666666666666672</v>
+      </c>
+      <c r="B462" s="0">
+        <v>0.56586628136499806</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>76.833333333333329</v>
+      </c>
+      <c r="B463" s="0">
+        <v>0.56823443778063376</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>77</v>
+      </c>
+      <c r="B464" s="0">
+        <v>0.57127557548394281</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0">
+        <v>77.166666666666672</v>
+      </c>
+      <c r="B465" s="0">
+        <v>0.57360605361675232</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0">
+        <v>77.333333333333329</v>
+      </c>
+      <c r="B466" s="0">
+        <v>0.57467168672838187</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0">
+        <v>77.5</v>
+      </c>
+      <c r="B467" s="0">
+        <v>0.57684238338695848</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0">
+        <v>77.666666666666672</v>
+      </c>
+      <c r="B468" s="0">
+        <v>0.5799188256719251</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0">
+        <v>77.833333333333329</v>
+      </c>
+      <c r="B469" s="0">
+        <v>0.58292664350021262</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0">
+        <v>78</v>
+      </c>
+      <c r="B470" s="0">
+        <v>0.58156637560121716</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0">
+        <v>78.166666666666672</v>
+      </c>
+      <c r="B471" s="0">
+        <v>0.57585696077069959</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0">
+        <v>78.333333333333329</v>
+      </c>
+      <c r="B472" s="0">
+        <v>0.57321143054071133</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0">
+        <v>78.5</v>
+      </c>
+      <c r="B473" s="0">
+        <v>0.57450740450859983</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0">
+        <v>78.666666666666672</v>
+      </c>
+      <c r="B474" s="0">
+        <v>0.57729753406650108</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0">
+        <v>78.833333333333329</v>
+      </c>
+      <c r="B475" s="0">
+        <v>0.5803824142829328</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0">
+        <v>79</v>
+      </c>
+      <c r="B476" s="0">
+        <v>0.58228010457802149</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0">
+        <v>79.166666666666672</v>
+      </c>
+      <c r="B477" s="0">
+        <v>0.58360916674091678</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0">
+        <v>79.333333333333329</v>
+      </c>
+      <c r="B478" s="0">
+        <v>0.58470990967516756</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0">
+        <v>79.5</v>
+      </c>
+      <c r="B479" s="0">
+        <v>0.58570683929005352</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0">
+        <v>79.666666666666672</v>
+      </c>
+      <c r="B480" s="0">
+        <v>0.58660741699668051</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0">
+        <v>79.833333333333329</v>
+      </c>
+      <c r="B481" s="0">
+        <v>0.58743276679252088</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0">
+        <v>80</v>
+      </c>
+      <c r="B482" s="0">
+        <v>0.58820234330862076</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0">
+        <v>80.166666666666672</v>
+      </c>
+      <c r="B483" s="0">
+        <v>0.58892249492681681</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0">
+        <v>80.333333333333329</v>
+      </c>
+      <c r="B484" s="0">
+        <v>0.58960708648587123</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0">
+        <v>80.5</v>
+      </c>
+      <c r="B485" s="0">
+        <v>0.59025349318362907</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0">
+        <v>80.666666666666672</v>
+      </c>
+      <c r="B486" s="0">
+        <v>0.59086786079083809</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0">
+        <v>80.833333333333329</v>
+      </c>
+      <c r="B487" s="0">
+        <v>0.59145395147208657</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0">
+        <v>81</v>
+      </c>
+      <c r="B488" s="0">
+        <v>0.59201458402447005</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0">
+        <v>81.166666666666672</v>
+      </c>
+      <c r="B489" s="0">
+        <v>0.59255196864692872</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0">
+        <v>81.333333333333329</v>
+      </c>
+      <c r="B490" s="0">
+        <v>0.59306868109817135</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0">
+        <v>81.5</v>
+      </c>
+      <c r="B491" s="0">
+        <v>0.59356694239566343</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0">
+        <v>81.666666666666672</v>
+      </c>
+      <c r="B492" s="0">
+        <v>0.5940487395963725</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0">
+        <v>81.833333333333329</v>
+      </c>
+      <c r="B493" s="0">
+        <v>0.59451511233748078</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0">
+        <v>82</v>
+      </c>
+      <c r="B494" s="0">
+        <v>0.59496803377036944</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0">
+        <v>82.166666666666672</v>
+      </c>
+      <c r="B495" s="0">
+        <v>0.59540788616356233</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0">
+        <v>82.333333333333329</v>
+      </c>
+      <c r="B496" s="0">
+        <v>0.59583668495664588</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0">
+        <v>82.5</v>
+      </c>
+      <c r="B497" s="0">
+        <v>0.59625484722840883</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0">
+        <v>82.666666666666672</v>
+      </c>
+      <c r="B498" s="0">
+        <v>0.59666373701983222</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0">
+        <v>82.833333333333329</v>
+      </c>
+      <c r="B499" s="0">
+        <v>0.59706387171259023</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0">
+        <v>83</v>
+      </c>
+      <c r="B500" s="0">
+        <v>0.59745569253147901</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0">
+        <v>83.166666666666672</v>
+      </c>
+      <c r="B501" s="0">
+        <v>0.59784004967174731</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="B502" s="0">
+        <v>0.5982165868673931</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0">
+        <v>83.5</v>
+      </c>
+      <c r="B503" s="0">
+        <v>0.59858528436671454</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="0">
+        <v>83.666666666666672</v>
+      </c>
+      <c r="B504" s="0">
+        <v>0.59895054329914987</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="0">
+        <v>83.833333333333329</v>
+      </c>
+      <c r="B505" s="0">
+        <v>0.59931267471005856</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="0">
+        <v>84</v>
+      </c>
+      <c r="B506" s="0">
+        <v>0.59816444481220588</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="0">
+        <v>84.166666666666672</v>
+      </c>
+      <c r="B507" s="0">
+        <v>0.59261173760575192</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="0">
+        <v>84.333333333333329</v>
+      </c>
+      <c r="B508" s="0">
+        <v>0.59027214295155317</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="0">
+        <v>84.5</v>
+      </c>
+      <c r="B509" s="0">
+        <v>0.59306032509380746</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="0">
+        <v>84.666666666666672</v>
+      </c>
+      <c r="B510" s="0">
+        <v>0.59602008505594073</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="0">
+        <v>84.833333333333329</v>
+      </c>
+      <c r="B511" s="0">
+        <v>0.59835849630798854</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="0">
+        <v>85</v>
+      </c>
+      <c r="B512" s="0">
+        <v>0.59838080208957956</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="0">
+        <v>85.166666666666672</v>
+      </c>
+      <c r="B513" s="0">
+        <v>0.592836863148271</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="0">
+        <v>85.333333333333329</v>
+      </c>
+      <c r="B514" s="0">
+        <v>0.59079447731537271</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="0">
+        <v>85.5</v>
+      </c>
+      <c r="B515" s="0">
+        <v>0.59186668095636852</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="0">
+        <v>85.666666666666672</v>
+      </c>
+      <c r="B516" s="0">
+        <v>0.59451620582355114</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="0">
+        <v>85.833333333333329</v>
+      </c>
+      <c r="B517" s="0">
+        <v>0.59681598500465483</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="0">
+        <v>86</v>
+      </c>
+      <c r="B518" s="0">
+        <v>0.59403047821609867</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="0">
+        <v>86.166666666666672</v>
+      </c>
+      <c r="B519" s="0">
+        <v>0.58878299493147279</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="0">
+        <v>86.333333333333329</v>
+      </c>
+      <c r="B520" s="0">
+        <v>0.5864436227248816</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="0">
+        <v>86.5</v>
+      </c>
+      <c r="B521" s="0">
+        <v>0.58723519219705989</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0">
+        <v>86.666666666666672</v>
+      </c>
+      <c r="B522" s="0">
+        <v>0.58987678625426288</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="0">
+        <v>86.833333333333329</v>
+      </c>
+      <c r="B523" s="0">
+        <v>0.59287173206659838</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="0">
+        <v>87</v>
+      </c>
+      <c r="B524" s="0">
+        <v>0.58999824752199259</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="0">
+        <v>87.166666666666672</v>
+      </c>
+      <c r="B525" s="0">
+        <v>0.58457607280205259</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0">
+        <v>87.333333333333329</v>
+      </c>
+      <c r="B526" s="0">
+        <v>0.58260175827871952</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="0">
+        <v>87.5</v>
+      </c>
+      <c r="B527" s="0">
+        <v>0.58423233163200228</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="0">
+        <v>87.666666666666672</v>
+      </c>
+      <c r="B528" s="0">
+        <v>0.58721501747434368</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0">
+        <v>87.833333333333329</v>
+      </c>
+      <c r="B529" s="0">
+        <v>0.590380937100771</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="0">
+        <v>88</v>
+      </c>
+      <c r="B530" s="0">
+        <v>0.58815612712326582</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="0">
+        <v>88.166666666666672</v>
+      </c>
+      <c r="B531" s="0">
+        <v>0.5832085580737667</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="0">
+        <v>88.333333333333329</v>
+      </c>
+      <c r="B532" s="0">
+        <v>0.58179128317287676</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="0">
+        <v>88.5</v>
+      </c>
+      <c r="B533" s="0">
+        <v>0.58090064149088338</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="0">
+        <v>88.666666666666672</v>
+      </c>
+      <c r="B534" s="0">
+        <v>0.58028603278929569</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="0">
+        <v>88.833333333333329</v>
+      </c>
+      <c r="B535" s="0">
+        <v>0.57983674593442958</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0">
+        <v>89</v>
+      </c>
+      <c r="B536" s="0">
+        <v>0.57950805435739283</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="0">
+        <v>89.166666666666672</v>
+      </c>
+      <c r="B537" s="0">
+        <v>0.57928093025619742</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="0">
+        <v>89.333333333333329</v>
+      </c>
+      <c r="B538" s="0">
+        <v>0.57913934229691655</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0">
+        <v>89.5</v>
+      </c>
+      <c r="B539" s="0">
+        <v>0.57907305272879173</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="0">
+        <v>89.666666666666672</v>
+      </c>
+      <c r="B540" s="0">
+        <v>0.57906830372909157</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="0">
+        <v>89.833333333333329</v>
+      </c>
+      <c r="B541" s="0">
+        <v>0.57912627639504244</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="0">
+        <v>90</v>
+      </c>
+      <c r="B542" s="0">
+        <v>0.57923269911248443</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="0">
+        <v>90.166666666666672</v>
+      </c>
+      <c r="B543" s="0">
+        <v>0.57940037372104203</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="0">
+        <v>90.333333333333329</v>
+      </c>
+      <c r="B544" s="0">
+        <v>0.57961340313159915</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="0">
+        <v>90.5</v>
+      </c>
+      <c r="B545" s="0">
+        <v>0.57985345502424424</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="0">
+        <v>90.666666666666672</v>
+      </c>
+      <c r="B546" s="0">
+        <v>0.58013547049436265</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="0">
+        <v>90.833333333333329</v>
+      </c>
+      <c r="B547" s="0">
+        <v>0.58045994042964544</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="0">
+        <v>91</v>
+      </c>
+      <c r="B548" s="0">
+        <v>0.58082536771306448</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="0">
+        <v>91.166666666666672</v>
+      </c>
+      <c r="B549" s="0">
+        <v>0.58113115558610018</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="0">
+        <v>91.333333333333329</v>
+      </c>
+      <c r="B550" s="0">
+        <v>0.58177423902908532</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="0">
+        <v>91.5</v>
+      </c>
+      <c r="B551" s="0">
+        <v>0.58562077171084959</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="0">
+        <v>91.666666666666672</v>
+      </c>
+      <c r="B552" s="0">
+        <v>0.58923408326243909</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0">
+        <v>91.833333333333329</v>
+      </c>
+      <c r="B553" s="0">
+        <v>0.59234797975556031</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="0">
+        <v>92</v>
+      </c>
+      <c r="B554" s="0">
+        <v>0.5943659748711756</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="0">
+        <v>92.166666666666672</v>
+      </c>
+      <c r="B555" s="0">
+        <v>0.59594809945558536</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0">
+        <v>92.333333333333329</v>
+      </c>
+      <c r="B556" s="0">
+        <v>0.59810370184808503</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0">
+        <v>92.5</v>
+      </c>
+      <c r="B557" s="0">
+        <v>0.60041660388060514</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0">
+        <v>92.666666666666672</v>
+      </c>
+      <c r="B558" s="0">
+        <v>0.60232033820890241</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="0">
+        <v>92.833333333333329</v>
+      </c>
+      <c r="B559" s="0">
+        <v>0.60410370637067812</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="0">
+        <v>93</v>
+      </c>
+      <c r="B560" s="0">
+        <v>0.60521499345363172</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="0">
+        <v>93.166666666666672</v>
+      </c>
+      <c r="B561" s="0">
+        <v>0.60218662260043132</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="0">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="B562" s="0">
+        <v>0.60180938118388494</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="0">
+        <v>93.5</v>
+      </c>
+      <c r="B563" s="0">
+        <v>0.60317854425661199</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="0">
+        <v>93.666666666666672</v>
+      </c>
+      <c r="B564" s="0">
+        <v>0.60536687171352455</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="0">
+        <v>93.833333333333329</v>
+      </c>
+      <c r="B565" s="0">
+        <v>0.60741670866344877</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="0">
+        <v>94</v>
+      </c>
+      <c r="B566" s="0">
+        <v>0.60761871766010001</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="0">
+        <v>94.166666666666672</v>
+      </c>
+      <c r="B567" s="0">
+        <v>0.60261162334742269</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0">
+        <v>94.333333333333329</v>
+      </c>
+      <c r="B568" s="0">
+        <v>0.60607892579887612</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="0">
+        <v>94.5</v>
+      </c>
+      <c r="B569" s="0">
+        <v>0.60791582314120773</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="0">
+        <v>94.666666666666672</v>
+      </c>
+      <c r="B570" s="0">
+        <v>0.60971583396332385</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0">
+        <v>94.833333333333329</v>
+      </c>
+      <c r="B571" s="0">
+        <v>0.61158240279187193</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="0">
+        <v>95</v>
+      </c>
+      <c r="B572" s="0">
+        <v>0.61035236228366418</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="0">
+        <v>95.166666666666672</v>
+      </c>
+      <c r="B573" s="0">
+        <v>0.60418109816587551</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0">
+        <v>95.333333333333329</v>
+      </c>
+      <c r="B574" s="0">
+        <v>0.60087854704037325</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="0">
+        <v>95.5</v>
+      </c>
+      <c r="B575" s="0">
+        <v>0.60185370280978323</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="0">
+        <v>95.666666666666672</v>
+      </c>
+      <c r="B576" s="0">
+        <v>0.60343357766679928</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="0">
+        <v>95.833333333333329</v>
+      </c>
+      <c r="B577" s="0">
+        <v>0.60539943438108046</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="0">
+        <v>96</v>
+      </c>
+      <c r="B578" s="0">
+        <v>0.6046022269160718</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="0">
+        <v>96.166666666666672</v>
+      </c>
+      <c r="B579" s="0">
+        <v>0.60038388462070025</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="0">
+        <v>96.333333333333329</v>
+      </c>
+      <c r="B580" s="0">
+        <v>0.59967793871016772</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="0">
+        <v>96.5</v>
+      </c>
+      <c r="B581" s="0">
+        <v>0.60110154115555259</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="0">
+        <v>96.666666666666672</v>
+      </c>
+      <c r="B582" s="0">
+        <v>0.60157572564869455</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="0">
+        <v>96.833333333333329</v>
+      </c>
+      <c r="B583" s="0">
+        <v>0.6006615358926386</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="0">
+        <v>97</v>
+      </c>
+      <c r="B584" s="0">
+        <v>0.59757140966211198</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="0">
+        <v>97.166666666666672</v>
+      </c>
+      <c r="B585" s="0">
+        <v>0.59380914960710984</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="0">
+        <v>97.333333333333329</v>
+      </c>
+      <c r="B586" s="0">
+        <v>0.59282649064435089</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="0">
+        <v>97.5</v>
+      </c>
+      <c r="B587" s="0">
+        <v>0.59387910431750368</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0">
+        <v>97.666666666666672</v>
+      </c>
+      <c r="B588" s="0">
+        <v>0.59577620726471392</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="0">
+        <v>97.833333333333329</v>
+      </c>
+      <c r="B589" s="0">
+        <v>0.59904723107375391</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="0">
+        <v>98</v>
+      </c>
+      <c r="B590" s="0">
+        <v>0.59662325314460696</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0">
+        <v>98.166666666666672</v>
+      </c>
+      <c r="B591" s="0">
+        <v>0.59184357641489427</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="0">
+        <v>98.333333333333329</v>
+      </c>
+      <c r="B592" s="0">
+        <v>0.59059323891831306</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="0">
+        <v>98.5</v>
+      </c>
+      <c r="B593" s="0">
+        <v>0.59269484110933513</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="0">
+        <v>98.666666666666672</v>
+      </c>
+      <c r="B594" s="0">
+        <v>0.59601787978865095</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0">
+        <v>98.833333333333329</v>
+      </c>
+      <c r="B595" s="0">
+        <v>0.59936051997628292</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="0">
+        <v>99</v>
+      </c>
+      <c r="B596" s="0">
+        <v>0.59792998066382175</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="0">
+        <v>99.166666666666672</v>
+      </c>
+      <c r="B597" s="0">
+        <v>0.59230403200097404</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0">
+        <v>99.333333333333329</v>
+      </c>
+      <c r="B598" s="0">
+        <v>0.5909494520571027</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="0">
+        <v>99.5</v>
+      </c>
+      <c r="B599" s="0">
+        <v>0.59323318753393095</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="0">
+        <v>99.666666666666672</v>
+      </c>
+      <c r="B600" s="0">
+        <v>0.5967233915063912</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="0">
+        <v>99.833333333333329</v>
+      </c>
+      <c r="B601" s="0">
+        <v>0.60004623449499828</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="0">
+        <v>100</v>
+      </c>
+      <c r="B602" s="0">
+        <v>0.59935952143825832</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="0">
+        <v>100.16666666666667</v>
+      </c>
+      <c r="B603" s="0">
+        <v>0.59322453399500186</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="0">
+        <v>100.33333333333333</v>
+      </c>
+      <c r="B604" s="0">
+        <v>0.59145353929592082</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="0">
+        <v>100.5</v>
+      </c>
+      <c r="B605" s="0">
+        <v>0.59412020859662773</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="0">
+        <v>100.66666666666667</v>
+      </c>
+      <c r="B606" s="0">
+        <v>0.59744915386321262</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="0">
+        <v>100.83333333333333</v>
+      </c>
+      <c r="B607" s="0">
+        <v>0.60100089671535317</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="0">
+        <v>101</v>
+      </c>
+      <c r="B608" s="0">
+        <v>0.60006716995948661</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="0">
+        <v>101.16666666666667</v>
+      </c>
+      <c r="B609" s="0">
+        <v>0.59368604815206483</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="0">
+        <v>101.33333333333333</v>
+      </c>
+      <c r="B610" s="0">
+        <v>0.59157934336827478</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="0">
+        <v>101.5</v>
+      </c>
+      <c r="B611" s="0">
+        <v>0.59425557779860549</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="0">
+        <v>101.66666666666667</v>
+      </c>
+      <c r="B612" s="0">
+        <v>0.59766699048461125</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="0">
+        <v>101.83333333333333</v>
+      </c>
+      <c r="B613" s="0">
+        <v>0.60109032989656952</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="0">
+        <v>102</v>
+      </c>
+      <c r="B614" s="0">
+        <v>0.59999943875514505</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="0">
+        <v>102.16666666666667</v>
+      </c>
+      <c r="B615" s="0">
+        <v>0.59401924874212231</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="0">
+        <v>102.33333333333333</v>
+      </c>
+      <c r="B616" s="0">
+        <v>0.59246258975058663</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="0">
+        <v>102.5</v>
+      </c>
+      <c r="B617" s="0">
+        <v>0.59554483228899047</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="0">
+        <v>102.66666666666667</v>
+      </c>
+      <c r="B618" s="0">
+        <v>0.59937134524666569</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="0">
+        <v>102.83333333333333</v>
+      </c>
+      <c r="B619" s="0">
+        <v>0.6028453050320205</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="0">
+        <v>103</v>
+      </c>
+      <c r="B620" s="0">
+        <v>0.60371637078246898</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="0">
+        <v>103.16666666666667</v>
+      </c>
+      <c r="B621" s="0">
+        <v>0.59720525050430806</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="0">
+        <v>103.33333333333333</v>
+      </c>
+      <c r="B622" s="0">
+        <v>0.59519433926959908</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="0">
+        <v>103.5</v>
+      </c>
+      <c r="B623" s="0">
+        <v>0.59793397268346316</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="0">
+        <v>103.66666666666667</v>
+      </c>
+      <c r="B624" s="0">
+        <v>0.60149507618505516</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="0">
+        <v>103.83333333333333</v>
+      </c>
+      <c r="B625" s="0">
+        <v>0.60514332954294181</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="0">
+        <v>104</v>
+      </c>
+      <c r="B626" s="0">
+        <v>0.60562716081053625</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="0">
+        <v>104.16666666666667</v>
+      </c>
+      <c r="B627" s="0">
+        <v>0.59878385392289069</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="0">
+        <v>104.33333333333333</v>
+      </c>
+      <c r="B628" s="0">
+        <v>0.59585321475635567</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="0">
+        <v>104.5</v>
+      </c>
+      <c r="B629" s="0">
+        <v>0.59815097199427569</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="0">
+        <v>104.66666666666667</v>
+      </c>
+      <c r="B630" s="0">
+        <v>0.60117166032265723</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="0">
+        <v>104.83333333333333</v>
+      </c>
+      <c r="B631" s="0">
+        <v>0.60421004191719396</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="0">
+        <v>105</v>
+      </c>
+      <c r="B632" s="0">
+        <v>0.60272620787876852</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="0">
+        <v>105.16666666666667</v>
+      </c>
+      <c r="B633" s="0">
+        <v>0.59613796348786519</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="0">
+        <v>105.33333333333333</v>
+      </c>
+      <c r="B634" s="0">
+        <v>0.59461667990714817</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="0">
+        <v>105.5</v>
+      </c>
+      <c r="B635" s="0">
+        <v>0.59549587204069565</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="0">
+        <v>105.66666666666667</v>
+      </c>
+      <c r="B636" s="0">
+        <v>0.59823617450431599</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="0">
+        <v>105.83333333333333</v>
+      </c>
+      <c r="B637" s="0">
+        <v>0.60123038311299404</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="0">
+        <v>106</v>
+      </c>
+      <c r="B638" s="0">
+        <v>0.59989306202736636</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="0">
+        <v>106.16666666666667</v>
+      </c>
+      <c r="B639" s="0">
+        <v>0.59498859103993851</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="0">
+        <v>106.33333333333333</v>
+      </c>
+      <c r="B640" s="0">
+        <v>0.59498162804392773</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="0">
+        <v>106.5</v>
+      </c>
+      <c r="B641" s="0">
+        <v>0.59612613789774827</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="0">
+        <v>106.66666666666667</v>
+      </c>
+      <c r="B642" s="0">
+        <v>0.5998169981764031</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="0">
+        <v>106.83333333333333</v>
+      </c>
+      <c r="B643" s="0">
+        <v>0.60411911704341259</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="0">
+        <v>107</v>
+      </c>
+      <c r="B644" s="0">
+        <v>0.6070699542953637</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="0">
+        <v>107.16666666666667</v>
+      </c>
+      <c r="B645" s="0">
+        <v>0.60700398289096824</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="0">
+        <v>107.33333333333333</v>
+      </c>
+      <c r="B646" s="0">
+        <v>0.60697796815156913</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="0">
+        <v>107.5</v>
+      </c>
+      <c r="B647" s="0">
+        <v>0.6076962477894754</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="0">
+        <v>107.66666666666667</v>
+      </c>
+      <c r="B648" s="0">
+        <v>0.60883737957947259</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="0">
+        <v>107.83333333333333</v>
+      </c>
+      <c r="B649" s="0">
+        <v>0.61185820432539217</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="0">
+        <v>108</v>
+      </c>
+      <c r="B650" s="0">
+        <v>0.60967676074790689</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="0">
+        <v>108.16666666666667</v>
+      </c>
+      <c r="B651" s="0">
+        <v>0.60413334796486895</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="0">
+        <v>108.33333333333333</v>
+      </c>
+      <c r="B652" s="0">
+        <v>0.60269069710220402</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="0">
+        <v>108.5</v>
+      </c>
+      <c r="B653" s="0">
+        <v>0.60424818841906769</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="0">
+        <v>108.66666666666667</v>
+      </c>
+      <c r="B654" s="0">
+        <v>0.6070660953309327</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="0">
+        <v>108.83333333333333</v>
+      </c>
+      <c r="B655" s="0">
+        <v>0.61022598836529529</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="0">
+        <v>109</v>
+      </c>
+      <c r="B656" s="0">
+        <v>0.60870732093705515</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="0">
+        <v>109.16666666666667</v>
+      </c>
+      <c r="B657" s="0">
+        <v>0.60324804807287491</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="0">
+        <v>109.33333333333333</v>
+      </c>
+      <c r="B658" s="0">
+        <v>0.60203718055959732</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="0">
+        <v>109.5</v>
+      </c>
+      <c r="B659" s="0">
+        <v>0.60489850333310202</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="0">
+        <v>109.66666666666667</v>
+      </c>
+      <c r="B660" s="0">
+        <v>0.60850469425783327</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="0">
+        <v>109.83333333333333</v>
+      </c>
+      <c r="B661" s="0">
+        <v>0.61242087494729314</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="0">
+        <v>110</v>
+      </c>
+      <c r="B662" s="0">
+        <v>0.61372602081775773</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="0">
+        <v>110.16666666666667</v>
+      </c>
+      <c r="B663" s="0">
+        <v>0.60746650381767997</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="0">
+        <v>110.33333333333333</v>
+      </c>
+      <c r="B664" s="0">
+        <v>0.60489705971458174</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="0">
+        <v>110.5</v>
+      </c>
+      <c r="B665" s="0">
+        <v>0.60636007634877842</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="0">
+        <v>110.66666666666667</v>
+      </c>
+      <c r="B666" s="0">
+        <v>0.60993536315483798</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="0">
+        <v>110.83333333333333</v>
+      </c>
+      <c r="B667" s="0">
+        <v>0.61306095739905753</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="0">
+        <v>111</v>
+      </c>
+      <c r="B668" s="0">
+        <v>0.61306543655526546</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="0">
+        <v>111.16666666666667</v>
+      </c>
+      <c r="B669" s="0">
+        <v>0.60826927235104555</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="0">
+        <v>111.33333333333333</v>
+      </c>
+      <c r="B670" s="0">
+        <v>0.60866510808295915</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="0">
+        <v>111.5</v>
+      </c>
+      <c r="B671" s="0">
+        <v>0.60959789440336254</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="0">
+        <v>111.66666666666667</v>
+      </c>
+      <c r="B672" s="0">
+        <v>0.61341074399736428</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="0">
+        <v>111.83333333333333</v>
+      </c>
+      <c r="B673" s="0">
+        <v>0.61642581909022476</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="0">
+        <v>112</v>
+      </c>
+      <c r="B674" s="0">
+        <v>0.61876601716281909</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="0">
+        <v>112.16666666666667</v>
+      </c>
+      <c r="B675" s="0">
+        <v>0.62077417775401367</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="0">
+        <v>112.33333333333333</v>
+      </c>
+      <c r="B676" s="0">
+        <v>0.62206661808206098</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="0">
+        <v>112.5</v>
+      </c>
+      <c r="B677" s="0">
+        <v>0.62381133658212085</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="0">
+        <v>112.66666666666667</v>
+      </c>
+      <c r="B678" s="0">
+        <v>0.62612145587423285</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="0">
+        <v>112.83333333333333</v>
+      </c>
+      <c r="B679" s="0">
+        <v>0.62734987954268007</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="0">
+        <v>113</v>
+      </c>
+      <c r="B680" s="0">
+        <v>0.62716306170985181</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="0">
+        <v>113.16666666666667</v>
+      </c>
+      <c r="B681" s="0">
+        <v>0.62204706010788768</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="0">
+        <v>113.33333333333333</v>
+      </c>
+      <c r="B682" s="0">
+        <v>0.62001586789325836</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="0">
+        <v>113.5</v>
+      </c>
+      <c r="B683" s="0">
+        <v>0.62226883658527021</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="0">
+        <v>113.66666666666667</v>
+      </c>
+      <c r="B684" s="0">
+        <v>0.62515043003322457</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="0">
+        <v>113.83333333333333</v>
+      </c>
+      <c r="B685" s="0">
+        <v>0.62790658246744069</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="0">
+        <v>114</v>
+      </c>
+      <c r="B686" s="0">
+        <v>0.62900653546583896</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="0">
+        <v>114.16666666666667</v>
+      </c>
+      <c r="B687" s="0">
+        <v>0.62502737913678696</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="0">
+        <v>114.33333333333333</v>
+      </c>
+      <c r="B688" s="0">
+        <v>0.62338019678777046</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="0">
+        <v>114.5</v>
+      </c>
+      <c r="B689" s="0">
+        <v>0.62258699881541491</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="0">
+        <v>114.66666666666667</v>
+      </c>
+      <c r="B690" s="0">
+        <v>0.62258018908980928</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="0">
+        <v>114.83333333333333</v>
+      </c>
+      <c r="B691" s="0">
+        <v>0.62386303001202514</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="0">
+        <v>115</v>
+      </c>
+      <c r="B692" s="0">
+        <v>0.62303213453694983</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="0">
+        <v>115.16666666666667</v>
+      </c>
+      <c r="B693" s="0">
+        <v>0.6216556904587196</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="0">
+        <v>115.33333333333333</v>
+      </c>
+      <c r="B694" s="0">
+        <v>0.62174031259107809</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="0">
+        <v>115.5</v>
+      </c>
+      <c r="B695" s="0">
+        <v>0.62278665240613007</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="0">
+        <v>115.66666666666667</v>
+      </c>
+      <c r="B696" s="0">
+        <v>0.62471400735875449</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="0">
+        <v>115.83333333333333</v>
+      </c>
+      <c r="B697" s="0">
+        <v>0.62665905521798349</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="0">
+        <v>116</v>
+      </c>
+      <c r="B698" s="0">
+        <v>0.6269285933892792</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="0">
+        <v>116.16666666666667</v>
+      </c>
+      <c r="B699" s="0">
+        <v>0.62530290443927905</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="0">
+        <v>116.33333333333333</v>
+      </c>
+      <c r="B700" s="0">
+        <v>0.62542211625314492</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="0">
+        <v>116.5</v>
+      </c>
+      <c r="B701" s="0">
+        <v>0.62682792640508167</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="0">
+        <v>116.66666666666667</v>
+      </c>
+      <c r="B702" s="0">
+        <v>0.62891234194149148</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="0">
+        <v>116.83333333333333</v>
+      </c>
+      <c r="B703" s="0">
+        <v>0.63072258105253365</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="0">
+        <v>117</v>
+      </c>
+      <c r="B704" s="0">
+        <v>0.63117368688559261</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="0">
+        <v>117.16666666666667</v>
+      </c>
+      <c r="B705" s="0">
+        <v>0.6321492219544147</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="0">
+        <v>117.33333333333333</v>
+      </c>
+      <c r="B706" s="0">
+        <v>0.63224461700917423</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="0">
+        <v>117.5</v>
+      </c>
+      <c r="B707" s="0">
+        <v>0.63381924790420319</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="0">
+        <v>117.66666666666667</v>
+      </c>
+      <c r="B708" s="0">
+        <v>0.63503348922166047</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="0">
+        <v>117.83333333333333</v>
+      </c>
+      <c r="B709" s="0">
+        <v>0.63594267864250376</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="0">
+        <v>118</v>
+      </c>
+      <c r="B710" s="0">
+        <v>0.63415718355685613</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="0">
+        <v>118.16666666666667</v>
+      </c>
+      <c r="B711" s="0">
+        <v>0.6292076644271698</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="0">
+        <v>118.33333333333333</v>
+      </c>
+      <c r="B712" s="0">
+        <v>0.62953975578905852</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="0">
+        <v>118.5</v>
+      </c>
+      <c r="B713" s="0">
+        <v>0.63210843845012343</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="0">
+        <v>118.66666666666667</v>
+      </c>
+      <c r="B714" s="0">
+        <v>0.63389587003434156</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="0">
+        <v>118.83333333333333</v>
+      </c>
+      <c r="B715" s="0">
+        <v>0.635323489751902</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="0">
+        <v>119</v>
+      </c>
+      <c r="B716" s="0">
+        <v>0.63334635144845164</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="0">
+        <v>119.16666666666667</v>
+      </c>
+      <c r="B717" s="0">
+        <v>0.62659827589211181</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="0">
+        <v>119.33333333333333</v>
+      </c>
+      <c r="B718" s="0">
+        <v>0.6258746575416746</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="0">
+        <v>119.5</v>
+      </c>
+      <c r="B719" s="0">
+        <v>0.62785622574827504</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="0">
+        <v>119.66666666666667</v>
+      </c>
+      <c r="B720" s="0">
+        <v>0.63065945975822046</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="0">
+        <v>119.83333333333333</v>
+      </c>
+      <c r="B721" s="0">
+        <v>0.63369503252372284</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="0">
+        <v>120</v>
+      </c>
+      <c r="B722" s="0">
+        <v>0.63473858239737957</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="0">
+        <v>120.16666666666667</v>
+      </c>
+      <c r="B723" s="0">
+        <v>0.63129428302074031</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="0">
+        <v>120.33333333333333</v>
+      </c>
+      <c r="B724" s="0">
+        <v>0.63260110013822102</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="0">
+        <v>120.5</v>
+      </c>
+      <c r="B725" s="0">
+        <v>0.635133339780249</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="0">
+        <v>120.66666666666667</v>
+      </c>
+      <c r="B726" s="0">
+        <v>0.63752917805792042</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="0">
+        <v>120.83333333333333</v>
+      </c>
+      <c r="B727" s="0">
+        <v>0.63876758223773511</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="0">
+        <v>121</v>
+      </c>
+      <c r="B728" s="0">
+        <v>0.63573457908652464</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="0">
+        <v>121.16666666666667</v>
+      </c>
+      <c r="B729" s="0">
+        <v>0.62849769017809909</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="0">
+        <v>121.33333333333333</v>
+      </c>
+      <c r="B730" s="0">
+        <v>0.62515553833479942</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="0">
+        <v>121.5</v>
+      </c>
+      <c r="B731" s="0">
+        <v>0.62543193970265287</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="0">
+        <v>121.66666666666667</v>
+      </c>
+      <c r="B732" s="0">
+        <v>0.62635308943218038</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="0">
+        <v>121.83333333333333</v>
+      </c>
+      <c r="B733" s="0">
+        <v>0.6286017834296479</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="0">
+        <v>122</v>
+      </c>
+      <c r="B734" s="0">
+        <v>0.62750904449212186</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="0">
+        <v>122.16666666666667</v>
+      </c>
+      <c r="B735" s="0">
+        <v>0.62003578202399312</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="0">
+        <v>122.33333333333333</v>
+      </c>
+      <c r="B736" s="0">
+        <v>0.61766386113336214</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="0">
+        <v>122.5</v>
+      </c>
+      <c r="B737" s="0">
+        <v>0.61877222564892731</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="0">
+        <v>122.66666666666667</v>
+      </c>
+      <c r="B738" s="0">
+        <v>0.61982357693494661</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="0">
+        <v>122.83333333333333</v>
+      </c>
+      <c r="B739" s="0">
+        <v>0.62068253277383978</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="0">
+        <v>123</v>
+      </c>
+      <c r="B740" s="0">
+        <v>0.61985356750141385</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="0">
+        <v>123.16666666666667</v>
+      </c>
+      <c r="B741" s="0">
+        <v>0.61484741860097381</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="0">
+        <v>123.33333333333333</v>
+      </c>
+      <c r="B742" s="0">
+        <v>0.61479777522823376</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="0">
+        <v>123.5</v>
+      </c>
+      <c r="B743" s="0">
+        <v>0.61675212684172531</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="0">
+        <v>123.66666666666667</v>
+      </c>
+      <c r="B744" s="0">
+        <v>0.61848988233501656</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="0">
+        <v>123.83333333333333</v>
+      </c>
+      <c r="B745" s="0">
+        <v>0.62147847239565657</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="0">
+        <v>124</v>
+      </c>
+      <c r="B746" s="0">
+        <v>0.62111141390841873</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="0">
+        <v>124.16666666666667</v>
+      </c>
+      <c r="B747" s="0">
+        <v>0.61735780563751996</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="0">
+        <v>124.33333333333333</v>
+      </c>
+      <c r="B748" s="0">
+        <v>0.61777177186672161</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="0">
+        <v>124.5</v>
+      </c>
+      <c r="B749" s="0">
+        <v>0.620496903951823</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="0">
+        <v>124.66666666666667</v>
+      </c>
+      <c r="B750" s="0">
+        <v>0.62405570922640607</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="0">
+        <v>124.83333333333333</v>
+      </c>
+      <c r="B751" s="0">
+        <v>0.62734884258065982</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="0">
+        <v>125</v>
+      </c>
+      <c r="B752" s="0">
+        <v>0.62899802848729314</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="0">
+        <v>125.16666666666667</v>
+      </c>
+      <c r="B753" s="0">
+        <v>0.62760224381252416</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="0">
+        <v>125.33333333333333</v>
+      </c>
+      <c r="B754" s="0">
+        <v>0.62721764427114157</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="0">
+        <v>125.5</v>
+      </c>
+      <c r="B755" s="0">
+        <v>0.6276731946095192</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="0">
+        <v>125.66666666666667</v>
+      </c>
+      <c r="B756" s="0">
+        <v>0.62680167469427084</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="0">
+        <v>125.83333333333333</v>
+      </c>
+      <c r="B757" s="0">
+        <v>0.62648252520508763</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="0">
+        <v>126</v>
+      </c>
+      <c r="B758" s="0">
+        <v>0.62435929073096563</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="0">
+        <v>126.16666666666667</v>
+      </c>
+      <c r="B759" s="0">
+        <v>0.61994334224748082</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="0">
+        <v>126.33333333333333</v>
+      </c>
+      <c r="B760" s="0">
+        <v>0.61954874529338477</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="0">
+        <v>126.5</v>
+      </c>
+      <c r="B761" s="0">
+        <v>0.62019025487223556</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="0">
+        <v>126.66666666666667</v>
+      </c>
+      <c r="B762" s="0">
+        <v>0.62044693469567425</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="0">
+        <v>126.83333333333333</v>
+      </c>
+      <c r="B763" s="0">
+        <v>0.62096997478747884</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="0">
+        <v>127</v>
+      </c>
+      <c r="B764" s="0">
+        <v>0.61980897885367348</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="0">
+        <v>127.16666666666667</v>
+      </c>
+      <c r="B765" s="0">
+        <v>0.61709154241453112</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="0">
+        <v>127.33333333333333</v>
+      </c>
+      <c r="B766" s="0">
+        <v>0.617099784223343</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="0">
+        <v>127.5</v>
+      </c>
+      <c r="B767" s="0">
+        <v>0.61803478640239506</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="0">
+        <v>127.66666666666667</v>
+      </c>
+      <c r="B768" s="0">
+        <v>0.61866482247805066</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="0">
+        <v>127.83333333333333</v>
+      </c>
+      <c r="B769" s="0">
+        <v>0.61967293830426673</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="0">
+        <v>128</v>
+      </c>
+      <c r="B770" s="0">
+        <v>0.61772036574924238</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="0">
+        <v>128.16666666666666</v>
+      </c>
+      <c r="B771" s="0">
+        <v>0.61470913956845008</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="0">
+        <v>128.33333333333334</v>
+      </c>
+      <c r="B772" s="0">
+        <v>0.61440120706569812</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="0">
+        <v>128.5</v>
+      </c>
+      <c r="B773" s="0">
+        <v>0.61599702870798601</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="0">
+        <v>128.66666666666666</v>
+      </c>
+      <c r="B774" s="0">
+        <v>0.6187765474778516</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="0">
+        <v>128.83333333333334</v>
+      </c>
+      <c r="B775" s="0">
+        <v>0.62122193853371466</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="0">
+        <v>129</v>
+      </c>
+      <c r="B776" s="0">
+        <v>0.6200589680009686</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="0">
+        <v>129.16666666666666</v>
+      </c>
+      <c r="B777" s="0">
+        <v>0.6160235013518055</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="0">
+        <v>129.33333333333334</v>
+      </c>
+      <c r="B778" s="0">
+        <v>0.61572859088246856</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="0">
+        <v>129.5</v>
+      </c>
+      <c r="B779" s="0">
+        <v>0.61681186896906004</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="0">
+        <v>129.66666666666666</v>
+      </c>
+      <c r="B780" s="0">
+        <v>0.61843832781923802</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="0">
+        <v>129.83333333333334</v>
+      </c>
+      <c r="B781" s="0">
+        <v>0.62022070254548156</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="0">
+        <v>130</v>
+      </c>
+      <c r="B782" s="0">
+        <v>0.61899826815684322</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="0">
+        <v>130.16666666666666</v>
+      </c>
+      <c r="B783" s="0">
+        <v>0.6157574558350124</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="0">
+        <v>130.33333333333334</v>
+      </c>
+      <c r="B784" s="0">
+        <v>0.61533660976155336</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="0">
+        <v>130.5</v>
+      </c>
+      <c r="B785" s="0">
+        <v>0.6168405198762289</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="0">
+        <v>130.66666666666666</v>
+      </c>
+      <c r="B786" s="0">
+        <v>0.61939903032154231</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="0">
+        <v>130.83333333333334</v>
+      </c>
+      <c r="B787" s="0">
+        <v>0.62192745254795912</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="0">
+        <v>131</v>
+      </c>
+      <c r="B788" s="0">
+        <v>0.6219184981732423</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="0">
+        <v>131.16666666666666</v>
+      </c>
+      <c r="B789" s="0">
+        <v>0.61854541140769603</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="0">
+        <v>131.33333333333334</v>
+      </c>
+      <c r="B790" s="0">
+        <v>0.61873554912377016</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="0">
+        <v>131.5</v>
+      </c>
+      <c r="B791" s="0">
+        <v>0.6193039798797183</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="0">
+        <v>131.66666666666666</v>
+      </c>
+      <c r="B792" s="0">
+        <v>0.62021002518880519</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="0">
+        <v>131.83333333333334</v>
+      </c>
+      <c r="B793" s="0">
+        <v>0.62124560364450798</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="0">
+        <v>132</v>
+      </c>
+      <c r="B794" s="0">
+        <v>0.62154944330850614</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="0">
+        <v>132.16666666666666</v>
+      </c>
+      <c r="B795" s="0">
+        <v>0.62035114507502898</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="0">
+        <v>132.33333333333334</v>
+      </c>
+      <c r="B796" s="0">
+        <v>0.62029379819954811</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="0">
+        <v>132.5</v>
+      </c>
+      <c r="B797" s="0">
+        <v>0.62192868662199852</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="0">
+        <v>132.66666666666666</v>
+      </c>
+      <c r="B798" s="0">
+        <v>0.62349019326737265</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="0">
+        <v>132.83333333333334</v>
+      </c>
+      <c r="B799" s="0">
+        <v>0.62456004401956278</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="0">
+        <v>133</v>
+      </c>
+      <c r="B800" s="0">
+        <v>0.62662053966943754</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="0">
+        <v>133.16666666666666</v>
+      </c>
+      <c r="B801" s="0">
+        <v>0.62904298971998351</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="0">
+        <v>133.33333333333334</v>
+      </c>
+      <c r="B802" s="0">
+        <v>0.63127305646969878</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="0">
+        <v>133.5</v>
+      </c>
+      <c r="B803" s="0">
+        <v>0.63309193509922801</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="0">
+        <v>133.66666666666666</v>
+      </c>
+      <c r="B804" s="0">
+        <v>0.63432978624020064</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="0">
+        <v>133.83333333333334</v>
+      </c>
+      <c r="B805" s="0">
+        <v>0.63559500028679838</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="0">
+        <v>134</v>
+      </c>
+      <c r="B806" s="0">
+        <v>0.63651205324054794</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="0">
+        <v>134.16666666666666</v>
+      </c>
+      <c r="B807" s="0">
+        <v>0.63707098090565761</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="0">
+        <v>134.33333333333334</v>
+      </c>
+      <c r="B808" s="0">
+        <v>0.63867838032806013</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="0">
+        <v>134.5</v>
+      </c>
+      <c r="B809" s="0">
+        <v>0.64083994089234908</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="0">
+        <v>134.66666666666666</v>
+      </c>
+      <c r="B810" s="0">
+        <v>0.6421190480991632</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="0">
+        <v>134.83333333333334</v>
+      </c>
+      <c r="B811" s="0">
+        <v>0.64333758771421379</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="0">
+        <v>135</v>
+      </c>
+      <c r="B812" s="0">
+        <v>0.64276135062066031</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="0">
+        <v>135.16666666666666</v>
+      </c>
+      <c r="B813" s="0">
+        <v>0.64190703280175743</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="0">
+        <v>135.33333333333334</v>
+      </c>
+      <c r="B814" s="0">
+        <v>0.64207449484640766</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="0">
+        <v>135.5</v>
+      </c>
+      <c r="B815" s="0">
+        <v>0.64185105330554415</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="0">
+        <v>135.66666666666666</v>
+      </c>
+      <c r="B816" s="0">
+        <v>0.64202294777374625</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="0">
+        <v>135.83333333333334</v>
+      </c>
+      <c r="B817" s="0">
+        <v>0.64241726288400114</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="0">
+        <v>136</v>
+      </c>
+      <c r="B818" s="0">
+        <v>0.64230527189661069</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="0">
+        <v>136.16666666666666</v>
+      </c>
+      <c r="B819" s="0">
+        <v>0.64260802053476251</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="0">
+        <v>136.33333333333334</v>
+      </c>
+      <c r="B820" s="0">
+        <v>0.64451114075300187</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="B821" s="0">
+        <v>0.64661876078764347</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="0">
+        <v>136.66666666666666</v>
+      </c>
+      <c r="B822" s="0">
+        <v>0.64813260717465127</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="0">
+        <v>136.83333333333334</v>
+      </c>
+      <c r="B823" s="0">
+        <v>0.64935991894280087</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="0">
+        <v>137</v>
+      </c>
+      <c r="B824" s="0">
+        <v>0.65011947460965747</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="0">
+        <v>137.16666666666666</v>
+      </c>
+      <c r="B825" s="0">
+        <v>0.65023356497721874</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="0">
+        <v>137.33333333333334</v>
+      </c>
+      <c r="B826" s="0">
+        <v>0.65105119733060701</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="0">
+        <v>137.5</v>
+      </c>
+      <c r="B827" s="0">
+        <v>0.65144954313400039</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="0">
+        <v>137.66666666666666</v>
+      </c>
+      <c r="B828" s="0">
+        <v>0.65180920580278212</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="0">
+        <v>137.83333333333334</v>
+      </c>
+      <c r="B829" s="0">
+        <v>0.65185845312215673</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="0">
+        <v>138</v>
+      </c>
+      <c r="B830" s="0">
+        <v>0.65060058855719816</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="0">
+        <v>138.16666666666666</v>
+      </c>
+      <c r="B831" s="0">
+        <v>0.64516682343278264</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="0">
+        <v>138.33333333333334</v>
+      </c>
+      <c r="B832" s="0">
+        <v>0.64466183435159219</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="0">
+        <v>138.5</v>
+      </c>
+      <c r="B833" s="0">
+        <v>0.64677179117749106</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="0">
+        <v>138.66666666666666</v>
+      </c>
+      <c r="B834" s="0">
+        <v>0.64930769020934187</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="0">
+        <v>138.83333333333334</v>
+      </c>
+      <c r="B835" s="0">
+        <v>0.65163071532911743</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="0">
+        <v>139</v>
+      </c>
+      <c r="B836" s="0">
+        <v>0.65150262239090906</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="0">
+        <v>139.16666666666666</v>
+      </c>
+      <c r="B837" s="0">
+        <v>0.6473851068132237</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="0">
+        <v>139.33333333333334</v>
+      </c>
+      <c r="B838" s="0">
+        <v>0.64769003155883354</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="0">
+        <v>139.5</v>
+      </c>
+      <c r="B839" s="0">
+        <v>0.64891210261500953</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="0">
+        <v>139.66666666666666</v>
+      </c>
+      <c r="B840" s="0">
+        <v>0.65039414829295406</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="0">
+        <v>139.83333333333334</v>
+      </c>
+      <c r="B841" s="0">
+        <v>0.65153668730746517</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="0">
+        <v>140</v>
+      </c>
+      <c r="B842" s="0">
+        <v>0.6490537175390747</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="0">
+        <v>140.16666666666666</v>
+      </c>
+      <c r="B843" s="0">
+        <v>0.643400106483623</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="0">
+        <v>140.33333333333334</v>
+      </c>
+      <c r="B844" s="0">
+        <v>0.64275012206124738</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="0">
+        <v>140.5</v>
+      </c>
+      <c r="B845" s="0">
+        <v>0.64511688316995319</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="0">
+        <v>140.66666666666666</v>
+      </c>
+      <c r="B846" s="0">
+        <v>0.6472597023782074</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="0">
+        <v>140.83333333333334</v>
+      </c>
+      <c r="B847" s="0">
+        <v>0.64981943011408994</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="0">
+        <v>141</v>
+      </c>
+      <c r="B848" s="0">
+        <v>0.64952012826005257</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="0">
+        <v>141.16666666666666</v>
+      </c>
+      <c r="B849" s="0">
+        <v>0.64571202379098014</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="0">
+        <v>141.33333333333334</v>
+      </c>
+      <c r="B850" s="0">
+        <v>0.64468534167349434</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="0">
+        <v>141.5</v>
+      </c>
+      <c r="B851" s="0">
+        <v>0.64669501378704497</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="0">
+        <v>141.66666666666666</v>
+      </c>
+      <c r="B852" s="0">
+        <v>0.64852941956893129</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="0">
+        <v>141.83333333333334</v>
+      </c>
+      <c r="B853" s="0">
+        <v>0.64971191979877874</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="0">
+        <v>142</v>
+      </c>
+      <c r="B854" s="0">
+        <v>0.64954975891642874</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="0">
+        <v>142.16666666666666</v>
+      </c>
+      <c r="B855" s="0">
+        <v>0.64856865684971421</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="0">
+        <v>142.33333333333334</v>
+      </c>
+      <c r="B856" s="0">
+        <v>0.65040290542375845</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="0">
+        <v>142.5</v>
+      </c>
+      <c r="B857" s="0">
+        <v>0.65200705398352821</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="0">
+        <v>142.66666666666666</v>
+      </c>
+      <c r="B858" s="0">
+        <v>0.65315343975212414</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="0">
+        <v>142.83333333333334</v>
+      </c>
+      <c r="B859" s="0">
+        <v>0.65427398009349635</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="0">
+        <v>143</v>
+      </c>
+      <c r="B860" s="0">
+        <v>0.65457805040654671</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="0">
+        <v>143.16666666666666</v>
+      </c>
+      <c r="B861" s="0">
+        <v>0.65491131946827086</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="0">
+        <v>143.33333333333334</v>
+      </c>
+      <c r="B862" s="0">
+        <v>0.65585906509983794</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="0">
+        <v>143.5</v>
+      </c>
+      <c r="B863" s="0">
+        <v>0.65732322868684456</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="0">
+        <v>143.66666666666666</v>
+      </c>
+      <c r="B864" s="0">
+        <v>0.65861972647340083</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="0">
+        <v>143.83333333333334</v>
+      </c>
+      <c r="B865" s="0">
+        <v>0.65939211598153214</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="0">
+        <v>144</v>
+      </c>
+      <c r="B866" s="0">
+        <v>0.65925238745220827</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="0">
+        <v>144.16666666666666</v>
+      </c>
+      <c r="B867" s="0">
+        <v>0.65923881039694709</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="0">
+        <v>144.33333333333334</v>
+      </c>
+      <c r="B868" s="0">
+        <v>0.65931684271877022</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="0">
+        <v>144.5</v>
+      </c>
+      <c r="B869" s="0">
+        <v>0.65904039571217632</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="0">
+        <v>144.66666666666666</v>
+      </c>
+      <c r="B870" s="0">
+        <v>0.65640824545843479</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="0">
+        <v>144.83333333333334</v>
+      </c>
+      <c r="B871" s="0">
+        <v>0.65722471486492107</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="0">
+        <v>145</v>
+      </c>
+      <c r="B872" s="0">
+        <v>0.6565286461625004</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="0">
+        <v>145.16666666666666</v>
+      </c>
+      <c r="B873" s="0">
+        <v>0.65492438264952846</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="0">
+        <v>145.33333333333334</v>
+      </c>
+      <c r="B874" s="0">
+        <v>0.65667178711493313</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="0">
+        <v>145.5</v>
+      </c>
+      <c r="B875" s="0">
+        <v>0.6579244065485157</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="0">
+        <v>145.66666666666666</v>
+      </c>
+      <c r="B876" s="0">
+        <v>0.65865144951275334</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="0">
+        <v>145.83333333333334</v>
+      </c>
+      <c r="B877" s="0">
+        <v>0.65959154441220913</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="0">
+        <v>146</v>
+      </c>
+      <c r="B878" s="0">
+        <v>0.66065117957656683</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="0">
+        <v>146.16666666666666</v>
+      </c>
+      <c r="B879" s="0">
+        <v>0.66018013348362858</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="0">
+        <v>146.33333333333334</v>
+      </c>
+      <c r="B880" s="0">
+        <v>0.66040747580131443</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="0">
+        <v>146.5</v>
+      </c>
+      <c r="B881" s="0">
+        <v>0.66145367624403717</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="0">
+        <v>146.66666666666666</v>
+      </c>
+      <c r="B882" s="0">
+        <v>0.66230011841382341</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="0">
+        <v>146.83333333333334</v>
+      </c>
+      <c r="B883" s="0">
+        <v>0.6633573682511168</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="0">
+        <v>147</v>
+      </c>
+      <c r="B884" s="0">
+        <v>0.6626071460511217</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="0">
+        <v>147.16666666666666</v>
+      </c>
+      <c r="B885" s="0">
+        <v>0.65730426865248404</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="0">
+        <v>147.33333333333334</v>
+      </c>
+      <c r="B886" s="0">
+        <v>0.65590654447586449</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="0">
+        <v>147.5</v>
+      </c>
+      <c r="B887" s="0">
+        <v>0.65823820753738316</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="0">
+        <v>147.66666666666666</v>
+      </c>
+      <c r="B888" s="0">
+        <v>0.66073110847441985</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="0">
+        <v>147.83333333333334</v>
+      </c>
+      <c r="B889" s="0">
+        <v>0.66287773958487684</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="0">
+        <v>148</v>
+      </c>
+      <c r="B890" s="0">
+        <v>0.66239334462470323</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="0">
+        <v>148.16666666666666</v>
+      </c>
+      <c r="B891" s="0">
+        <v>0.65840788883609291</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="0">
+        <v>148.33333333333334</v>
+      </c>
+      <c r="B892" s="0">
+        <v>0.65920512675685694</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="0">
+        <v>148.5</v>
+      </c>
+      <c r="B893" s="0">
+        <v>0.66129866109483459</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="0">
+        <v>148.66666666666666</v>
+      </c>
+      <c r="B894" s="0">
+        <v>0.66337476388899697</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="0">
+        <v>148.83333333333334</v>
+      </c>
+      <c r="B895" s="0">
+        <v>0.66473652463256749</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="0">
+        <v>149</v>
+      </c>
+      <c r="B896" s="0">
+        <v>0.66321972211292968</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="0">
+        <v>149.16666666666666</v>
+      </c>
+      <c r="B897" s="0">
+        <v>0.65667309372869931</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="0">
+        <v>149.33333333333334</v>
+      </c>
+      <c r="B898" s="0">
+        <v>0.65515622244618166</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="0">
+        <v>149.5</v>
+      </c>
+      <c r="B899" s="0">
+        <v>0.65569521581785162</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="0">
+        <v>149.66666666666666</v>
+      </c>
+      <c r="B900" s="0">
+        <v>0.65756834546398146</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="0">
+        <v>149.83333333333334</v>
+      </c>
+      <c r="B901" s="0">
+        <v>0.6595902401976288</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="0">
+        <v>150</v>
+      </c>
+      <c r="B902" s="0">
+        <v>0.65805050217991745</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="0">
+        <v>150.16666666666666</v>
+      </c>
+      <c r="B903" s="0">
+        <v>0.65397753417030202</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="0">
+        <v>150.33333333333334</v>
+      </c>
+      <c r="B904" s="0">
+        <v>0.65334798732632371</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="0">
+        <v>150.5</v>
+      </c>
+      <c r="B905" s="0">
+        <v>0.65362535567373714</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="0">
+        <v>150.66666666666666</v>
+      </c>
+      <c r="B906" s="0">
+        <v>0.65383473708454631</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="0">
+        <v>150.83333333333334</v>
+      </c>
+      <c r="B907" s="0">
+        <v>0.65357856448362317</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="0">
+        <v>151</v>
+      </c>
+      <c r="B908" s="0">
+        <v>0.65252203267874931</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="0">
+        <v>151.16666666666666</v>
+      </c>
+      <c r="B909" s="0">
+        <v>0.65142702676045661</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="0">
+        <v>151.33333333333334</v>
+      </c>
+      <c r="B910" s="0">
+        <v>0.65144714408127313</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="0">
+        <v>151.5</v>
+      </c>
+      <c r="B911" s="0">
+        <v>0.65238565737164556</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="0">
+        <v>151.66666666666666</v>
+      </c>
+      <c r="B912" s="0">
+        <v>0.6539643257960438</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="0">
+        <v>151.83333333333334</v>
+      </c>
+      <c r="B913" s="0">
+        <v>0.65533669843912823</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="0">
+        <v>152</v>
+      </c>
+      <c r="B914" s="0">
+        <v>0.65643182562515223</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="0">
+        <v>152.16666666666666</v>
+      </c>
+      <c r="B915" s="0">
+        <v>0.65725267530388687</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="0">
+        <v>152.33333333333334</v>
+      </c>
+      <c r="B916" s="0">
+        <v>0.65791864944426515</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="0">
+        <v>152.5</v>
+      </c>
+      <c r="B917" s="0">
+        <v>0.65912718902790091</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="0">
+        <v>152.66666666666666</v>
+      </c>
+      <c r="B918" s="0">
+        <v>0.65994873687361755</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="0">
+        <v>152.83333333333334</v>
+      </c>
+      <c r="B919" s="0">
+        <v>0.66090005453078338</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="0">
+        <v>153</v>
+      </c>
+      <c r="B920" s="0">
+        <v>0.66073913031750686</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="0">
+        <v>153.16666666666666</v>
+      </c>
+      <c r="B921" s="0">
+        <v>0.65999412659956957</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="0">
+        <v>153.33333333333334</v>
+      </c>
+      <c r="B922" s="0">
+        <v>0.66044310169682774</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="0">
+        <v>153.5</v>
+      </c>
+      <c r="B923" s="0">
+        <v>0.66142328007454554</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="0">
+        <v>153.66666666666666</v>
+      </c>
+      <c r="B924" s="0">
+        <v>0.66231090471080123</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="0">
+        <v>153.83333333333334</v>
+      </c>
+      <c r="B925" s="0">
+        <v>0.66335860831879423</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="0">
+        <v>154</v>
+      </c>
+      <c r="B926" s="0">
+        <v>0.66376023468448142</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="0">
+        <v>154.16666666666666</v>
+      </c>
+      <c r="B927" s="0">
+        <v>0.66158478101464391</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="0">
+        <v>154.33333333333334</v>
+      </c>
+      <c r="B928" s="0">
+        <v>0.65982179700251109</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="0">
+        <v>154.5</v>
+      </c>
+      <c r="B929" s="0">
+        <v>0.65858005847819989</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="0">
+        <v>154.66666666666666</v>
+      </c>
+      <c r="B930" s="0">
+        <v>0.65842266369542723</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="0">
+        <v>154.83333333333334</v>
+      </c>
+      <c r="B931" s="0">
+        <v>0.6582358773442083</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="0">
+        <v>155</v>
+      </c>
+      <c r="B932" s="0">
+        <v>0.65724548750122036</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="0">
+        <v>155.16666666666666</v>
+      </c>
+      <c r="B933" s="0">
+        <v>0.6540954087651264</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="0">
+        <v>155.33333333333334</v>
+      </c>
+      <c r="B934" s="0">
+        <v>0.65273106194971142</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="0">
+        <v>155.5</v>
+      </c>
+      <c r="B935" s="0">
+        <v>0.65161867574760202</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="0">
+        <v>155.66666666666666</v>
+      </c>
+      <c r="B936" s="0">
+        <v>0.65039321235256287</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="0">
+        <v>155.83333333333334</v>
+      </c>
+      <c r="B937" s="0">
+        <v>0.64967072283809435</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="0">
+        <v>156</v>
+      </c>
+      <c r="B938" s="0">
+        <v>0.64805881159885415</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="0">
+        <v>156.16666666666666</v>
+      </c>
+      <c r="B939" s="0">
+        <v>0.6466911864734386</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="0">
+        <v>156.33333333333334</v>
+      </c>
+      <c r="B940" s="0">
+        <v>0.64582115566298892</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="0">
+        <v>156.5</v>
+      </c>
+      <c r="B941" s="0">
+        <v>0.64557526775815</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="0">
+        <v>156.66666666666666</v>
+      </c>
+      <c r="B942" s="0">
+        <v>0.64785581083426946</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="0">
+        <v>156.83333333333334</v>
+      </c>
+      <c r="B943" s="0">
+        <v>0.64995198289292888</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="0">
+        <v>157</v>
+      </c>
+      <c r="B944" s="0">
+        <v>0.64885092812353673</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="0">
+        <v>157.16666666666666</v>
+      </c>
+      <c r="B945" s="0">
+        <v>0.64516723653060082</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="0">
+        <v>157.33333333333334</v>
+      </c>
+      <c r="B946" s="0">
+        <v>0.64460527949023927</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="0">
+        <v>157.5</v>
+      </c>
+      <c r="B947" s="0">
+        <v>0.64569963124073093</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="0">
+        <v>157.66666666666666</v>
+      </c>
+      <c r="B948" s="0">
+        <v>0.64742243474796757</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="0">
+        <v>157.83333333333334</v>
+      </c>
+      <c r="B949" s="0">
+        <v>0.64882221578178123</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="0">
+        <v>158</v>
+      </c>
+      <c r="B950" s="0">
+        <v>0.64890402579253082</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="0">
+        <v>158.16666666666666</v>
+      </c>
+      <c r="B951" s="0">
+        <v>0.64806862999970638</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="0">
+        <v>158.33333333333334</v>
+      </c>
+      <c r="B952" s="0">
+        <v>0.64761593113878968</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="0">
+        <v>158.5</v>
+      </c>
+      <c r="B953" s="0">
+        <v>0.64773140770146997</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="0">
+        <v>158.66666666666666</v>
+      </c>
+      <c r="B954" s="0">
+        <v>0.64793165316873358</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="0">
+        <v>158.83333333333334</v>
+      </c>
+      <c r="B955" s="0">
+        <v>0.64974761322727093</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="0">
+        <v>159</v>
+      </c>
+      <c r="B956" s="0">
+        <v>0.64947793050148572</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="0">
+        <v>159.16666666666666</v>
+      </c>
+      <c r="B957" s="0">
+        <v>0.64569203370736872</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="0">
+        <v>159.33333333333334</v>
+      </c>
+      <c r="B958" s="0">
+        <v>0.64658836525107577</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="0">
+        <v>159.5</v>
+      </c>
+      <c r="B959" s="0">
+        <v>0.64872724894980327</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="0">
+        <v>159.66666666666666</v>
+      </c>
+      <c r="B960" s="0">
+        <v>0.65015410430869891</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="0">
+        <v>159.83333333333334</v>
+      </c>
+      <c r="B961" s="0">
+        <v>0.65140419544256412</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="0">
+        <v>160</v>
+      </c>
+      <c r="B962" s="0">
+        <v>0.65115128215308027</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="0">
+        <v>160.16666666666666</v>
+      </c>
+      <c r="B963" s="0">
+        <v>0.65082936948101489</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="0">
+        <v>160.33333333333334</v>
+      </c>
+      <c r="B964" s="0">
+        <v>0.65143124018521559</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="0">
+        <v>160.5</v>
+      </c>
+      <c r="B965" s="0">
+        <v>0.65238906587168832</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="0">
+        <v>160.66666666666666</v>
+      </c>
+      <c r="B966" s="0">
+        <v>0.6532960932272428</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="0">
+        <v>160.83333333333334</v>
+      </c>
+      <c r="B967" s="0">
+        <v>0.65428335958107298</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="0">
+        <v>161</v>
+      </c>
+      <c r="B968" s="0">
+        <v>0.65469427045111495</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="0">
+        <v>161.16666666666666</v>
+      </c>
+      <c r="B969" s="0">
+        <v>0.65602231208797346</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="0">
+        <v>161.33333333333334</v>
+      </c>
+      <c r="B970" s="0">
+        <v>0.65816754424885782</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="0">
+        <v>161.5</v>
+      </c>
+      <c r="B971" s="0">
+        <v>0.65932934475218741</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="0">
+        <v>161.66666666666666</v>
+      </c>
+      <c r="B972" s="0">
+        <v>0.66035102937204637</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="0">
+        <v>161.83333333333334</v>
+      </c>
+      <c r="B973" s="0">
+        <v>0.66196089050516305</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="0">
+        <v>162</v>
+      </c>
+      <c r="B974" s="0">
+        <v>0.66188778219748301</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="0">
+        <v>162.16666666666666</v>
+      </c>
+      <c r="B975" s="0">
+        <v>0.65958624841369295</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="0">
+        <v>162.33333333333334</v>
+      </c>
+      <c r="B976" s="0">
+        <v>0.66043131914604947</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="0">
+        <v>162.5</v>
+      </c>
+      <c r="B977" s="0">
+        <v>0.66209630219966398</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="0">
+        <v>162.66666666666666</v>
+      </c>
+      <c r="B978" s="0">
+        <v>0.66450592678270426</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="0">
+        <v>162.83333333333334</v>
+      </c>
+      <c r="B979" s="0">
+        <v>0.66647376776256595</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="0">
+        <v>163</v>
+      </c>
+      <c r="B980" s="0">
+        <v>0.66582654599551061</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="0">
+        <v>163.16666666666666</v>
+      </c>
+      <c r="B981" s="0">
+        <v>0.66018864573462666</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="0">
+        <v>163.33333333333334</v>
+      </c>
+      <c r="B982" s="0">
+        <v>0.66059465436550169</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="0">
+        <v>163.5</v>
+      </c>
+      <c r="B983" s="0">
+        <v>0.66171419760018802</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="0">
+        <v>163.66666666666666</v>
+      </c>
+      <c r="B984" s="0">
+        <v>0.66389422855589564</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="0">
+        <v>163.83333333333334</v>
+      </c>
+      <c r="B985" s="0">
+        <v>0.66605471533328098</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="0">
+        <v>164</v>
+      </c>
+      <c r="B986" s="0">
+        <v>0.66605241535367976</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="0">
+        <v>164.16666666666666</v>
+      </c>
+      <c r="B987" s="0">
+        <v>0.66220379283252473</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="0">
+        <v>164.33333333333334</v>
+      </c>
+      <c r="B988" s="0">
+        <v>0.66105064481048281</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="0">
+        <v>164.5</v>
+      </c>
+      <c r="B989" s="0">
+        <v>0.66117173263016538</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="0">
+        <v>164.66666666666666</v>
+      </c>
+      <c r="B990" s="0">
+        <v>0.66111776088176233</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="0">
+        <v>164.83333333333334</v>
+      </c>
+      <c r="B991" s="0">
+        <v>0.66144794296280285</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="0">
+        <v>165</v>
+      </c>
+      <c r="B992" s="0">
+        <v>0.66047529462606736</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="0">
+        <v>165.16666666666666</v>
+      </c>
+      <c r="B993" s="0">
+        <v>0.65826201351390734</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="0">
+        <v>165.33333333333334</v>
+      </c>
+      <c r="B994" s="0">
+        <v>0.65856138601704173</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="0">
+        <v>165.5</v>
+      </c>
+      <c r="B995" s="0">
+        <v>0.65990309108945167</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="0">
+        <v>165.66666666666666</v>
+      </c>
+      <c r="B996" s="0">
+        <v>0.66172293592806153</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="0">
+        <v>165.83333333333334</v>
+      </c>
+      <c r="B997" s="0">
+        <v>0.66327750423316978</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="0">
+        <v>166</v>
+      </c>
+      <c r="B998" s="0">
+        <v>0.66258966400058084</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="0">
+        <v>166.16666666666666</v>
+      </c>
+      <c r="B999" s="0">
+        <v>0.65984825901953126</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="0">
+        <v>166.33333333333334</v>
+      </c>
+      <c r="B1000" s="0">
+        <v>0.65991819955335673</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="0">
+        <v>166.5</v>
+      </c>
+      <c r="B1001" s="0">
+        <v>0.65992581142701601</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="0">
+        <v>166.66666666666666</v>
+      </c>
+      <c r="B1002" s="0">
+        <v>0.65985270224431158</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="0">
+        <v>166.83333333333334</v>
+      </c>
+      <c r="B1003" s="0">
+        <v>0.65976778102981371</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="0">
+        <v>167</v>
+      </c>
+      <c r="B1004" s="0">
+        <v>0.65880516763678754</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="0">
+        <v>167.16666666666666</v>
+      </c>
+      <c r="B1005" s="0">
+        <v>0.65799818812598099</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="0">
+        <v>167.33333333333334</v>
+      </c>
+      <c r="B1006" s="0">
+        <v>0.65797810358792375</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="0">
+        <v>167.5</v>
+      </c>
+      <c r="B1007" s="0">
+        <v>0.6581025455709959</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="0">
+        <v>167.66666666666666</v>
+      </c>
+      <c r="B1008" s="0">
+        <v>0.65855812309610851</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="0">
+        <v>167.83333333333334</v>
+      </c>
+      <c r="B1009" s="0">
+        <v>0.65889256009913033</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="0">
+        <v>168</v>
+      </c>
+      <c r="B1010" s="0">
+        <v>0.65780002113069081</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="0">
+        <v>168.16666666666666</v>
+      </c>
+      <c r="B1011" s="0">
+        <v>0.65546244054823422</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="0">
+        <v>168.33333333333334</v>
+      </c>
+      <c r="B1012" s="0">
+        <v>0.65543867423227942</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="0">
+        <v>168.5</v>
+      </c>
+      <c r="B1013" s="0">
+        <v>0.65723135635065921</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="0">
+        <v>168.66666666666666</v>
+      </c>
+      <c r="B1014" s="0">
+        <v>0.65809782815568485</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="0">
+        <v>168.83333333333334</v>
+      </c>
+      <c r="B1015" s="0">
+        <v>0.65848256886931056</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="0">
+        <v>169</v>
+      </c>
+      <c r="B1016" s="0">
+        <v>0.6588087030987263</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="0">
+        <v>169.16666666666666</v>
+      </c>
+      <c r="B1017" s="0">
+        <v>0.65911764587056465</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="0">
+        <v>169.33333333333334</v>
+      </c>
+      <c r="B1018" s="0">
+        <v>0.65942091223135302</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="0">
+        <v>169.5</v>
+      </c>
+      <c r="B1019" s="0">
+        <v>0.6597242696480845</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="0">
+        <v>169.66666666666666</v>
+      </c>
+      <c r="B1020" s="0">
+        <v>0.66003565850531598</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="0">
+        <v>169.83333333333334</v>
+      </c>
+      <c r="B1021" s="0">
+        <v>0.66035318455293413</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="0">
+        <v>170</v>
+      </c>
+      <c r="B1022" s="0">
+        <v>0.6606815587675281</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="0">
+        <v>170.16666666666666</v>
+      </c>
+      <c r="B1023" s="0">
+        <v>0.66102233630596141</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="0">
+        <v>170.33333333333334</v>
+      </c>
+      <c r="B1024" s="0">
+        <v>0.6613718424002244</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="0">
+        <v>170.5</v>
+      </c>
+      <c r="B1025" s="0">
+        <v>0.66173141156861004</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="0">
+        <v>170.66666666666666</v>
+      </c>
+      <c r="B1026" s="0">
+        <v>0.66210209317609781</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="0">
+        <v>170.83333333333334</v>
+      </c>
+      <c r="B1027" s="0">
+        <v>0.66248451681620757</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="0">
+        <v>171</v>
+      </c>
+      <c r="B1028" s="0">
+        <v>0.66287583503786118</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="0">
+        <v>171.16666666666666</v>
+      </c>
+      <c r="B1029" s="0">
+        <v>0.66327687661996138</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="0">
+        <v>171.33333333333334</v>
+      </c>
+      <c r="B1030" s="0">
+        <v>0.66368883566935366</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="0">
+        <v>171.5</v>
+      </c>
+      <c r="B1031" s="0">
+        <v>0.66411192604834046</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="0">
+        <v>171.66666666666666</v>
+      </c>
+      <c r="B1032" s="0">
+        <v>0.66454635935465556</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="0">
+        <v>171.83333333333334</v>
+      </c>
+      <c r="B1033" s="0">
+        <v>0.6649926647717781</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="0">
+        <v>172</v>
+      </c>
+      <c r="B1034" s="0">
+        <v>0.66544928864188779</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="0">
+        <v>172.16666666666666</v>
+      </c>
+      <c r="B1035" s="0">
+        <v>0.66593398081727362</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="0">
+        <v>172.33333333333334</v>
+      </c>
+      <c r="B1036" s="0">
+        <v>0.66702504968996757</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="0">
+        <v>172.5</v>
+      </c>
+      <c r="B1037" s="0">
+        <v>0.66885759033296976</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="0">
+        <v>172.66666666666666</v>
+      </c>
+      <c r="B1038" s="0">
+        <v>0.67019398974389954</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="0">
+        <v>172.83333333333334</v>
+      </c>
+      <c r="B1039" s="0">
+        <v>0.67052579444143956</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="0">
+        <v>173</v>
+      </c>
+      <c r="B1040" s="0">
+        <v>0.67056661533613538</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="0">
+        <v>173.16666666666666</v>
+      </c>
+      <c r="B1041" s="0">
+        <v>0.67044064542857596</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="0">
+        <v>173.33333333333334</v>
+      </c>
+      <c r="B1042" s="0">
+        <v>0.67109223310855215</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="0">
+        <v>173.5</v>
+      </c>
+      <c r="B1043" s="0">
+        <v>0.6714600640896099</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="0">
+        <v>173.66666666666666</v>
+      </c>
+      <c r="B1044" s="0">
+        <v>0.67192555312858604</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="0">
+        <v>173.83333333333334</v>
+      </c>
+      <c r="B1045" s="0">
+        <v>0.67267957190993188</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="0">
+        <v>174</v>
+      </c>
+      <c r="B1046" s="0">
+        <v>0.67279307348712414</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="0">
+        <v>174.16666666666666</v>
+      </c>
+      <c r="B1047" s="0">
+        <v>0.67196900399039139</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="0">
+        <v>174.33333333333334</v>
+      </c>
+      <c r="B1048" s="0">
+        <v>0.67299241699706325</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="0">
+        <v>174.5</v>
+      </c>
+      <c r="B1049" s="0">
+        <v>0.67408710962090002</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="0">
+        <v>174.66666666666666</v>
+      </c>
+      <c r="B1050" s="0">
+        <v>0.67502551512663744</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="0">
+        <v>174.83333333333334</v>
+      </c>
+      <c r="B1051" s="0">
+        <v>0.67588124549611328</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="0">
+        <v>175</v>
+      </c>
+      <c r="B1052" s="0">
+        <v>0.67628030605032685</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="0">
+        <v>175.16666666666666</v>
+      </c>
+      <c r="B1053" s="0">
+        <v>0.67566540278314036</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="0">
+        <v>175.33333333333334</v>
+      </c>
+      <c r="B1054" s="0">
+        <v>0.67603796528540272</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="0">
+        <v>175.5</v>
+      </c>
+      <c r="B1055" s="0">
+        <v>0.67657727189187134</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="0">
+        <v>175.66666666666666</v>
+      </c>
+      <c r="B1056" s="0">
+        <v>0.67688779731440718</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="0">
+        <v>175.83333333333334</v>
+      </c>
+      <c r="B1057" s="0">
+        <v>0.67709390944868542</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="0">
+        <v>176</v>
+      </c>
+      <c r="B1058" s="0">
+        <v>0.67565458477968365</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="0">
+        <v>176.16666666666666</v>
+      </c>
+      <c r="B1059" s="0">
+        <v>0.67179342893314209</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="0">
+        <v>176.33333333333334</v>
+      </c>
+      <c r="B1060" s="0">
+        <v>0.67250248729078599</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="0">
+        <v>176.5</v>
+      </c>
+      <c r="B1061" s="0">
+        <v>0.67443341354745357</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="0">
+        <v>176.66666666666666</v>
+      </c>
+      <c r="B1062" s="0">
+        <v>0.67628112195234458</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="0">
+        <v>176.83333333333334</v>
+      </c>
+      <c r="B1063" s="0">
+        <v>0.6774806353781625</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="0">
+        <v>177</v>
+      </c>
+      <c r="B1064" s="0">
+        <v>0.67810407396181771</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="0">
+        <v>177.16666666666666</v>
+      </c>
+      <c r="B1065" s="0">
+        <v>0.67772954557249598</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="0">
+        <v>177.33333333333334</v>
+      </c>
+      <c r="B1066" s="0">
+        <v>0.67866686305088242</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="0">
+        <v>177.5</v>
+      </c>
+      <c r="B1067" s="0">
+        <v>0.67961302737240215</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="0">
+        <v>177.66666666666666</v>
+      </c>
+      <c r="B1068" s="0">
+        <v>0.68035658164141255</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="0">
+        <v>177.83333333333334</v>
+      </c>
+      <c r="B1069" s="0">
+        <v>0.68083202077461358</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="0">
+        <v>178</v>
+      </c>
+      <c r="B1070" s="0">
+        <v>0.68098974580117544</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="0">
+        <v>178.16666666666666</v>
+      </c>
+      <c r="B1071" s="0">
+        <v>0.68105156715516824</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="0">
+        <v>178.33333333333334</v>
+      </c>
+      <c r="B1072" s="0">
+        <v>0.68148570146867893</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="0">
+        <v>178.5</v>
+      </c>
+      <c r="B1073" s="0">
+        <v>0.68238864341161087</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="0">
+        <v>178.66666666666666</v>
+      </c>
+      <c r="B1074" s="0">
+        <v>0.68358308699870962</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="0">
+        <v>178.83333333333334</v>
+      </c>
+      <c r="B1075" s="0">
+        <v>0.68493913589325528</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="0">
+        <v>179</v>
+      </c>
+      <c r="B1076" s="0">
+        <v>0.68356809836703258</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="0">
+        <v>179.16666666666666</v>
+      </c>
+      <c r="B1077" s="0">
+        <v>0.68039907072044792</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="0">
+        <v>179.33333333333334</v>
+      </c>
+      <c r="B1078" s="0">
+        <v>0.68228190598073779</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="0">
+        <v>179.5</v>
+      </c>
+      <c r="B1079" s="0">
+        <v>0.68365476435357298</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="0">
+        <v>179.66666666666666</v>
+      </c>
+      <c r="B1080" s="0">
+        <v>0.68461580428257474</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="0">
+        <v>179.83333333333334</v>
+      </c>
+      <c r="B1081" s="0">
+        <v>0.6854218206616628</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="0">
+        <v>180</v>
+      </c>
+      <c r="B1082" s="0">
+        <v>0.68478230819374419</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="0">
+        <v>180.16666666666666</v>
+      </c>
+      <c r="B1083" s="0">
+        <v>0.67935312605721321</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="0">
+        <v>180.33333333333334</v>
+      </c>
+      <c r="B1084" s="0">
+        <v>0.67849478363912563</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="0">
+        <v>180.5</v>
+      </c>
+      <c r="B1085" s="0">
+        <v>0.67990269988503016</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="0">
+        <v>180.66666666666666</v>
+      </c>
+      <c r="B1086" s="0">
+        <v>0.68066912997443751</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="0">
+        <v>180.83333333333334</v>
+      </c>
+      <c r="B1087" s="0">
+        <v>0.67733815734114244</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="0">
+        <v>181</v>
+      </c>
+      <c r="B1088" s="0">
+        <v>0.67268406753141896</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="0">
+        <v>181.16666666666666</v>
+      </c>
+      <c r="B1089" s="0">
+        <v>0.66842422082799058</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="0">
+        <v>181.33333333333334</v>
+      </c>
+      <c r="B1090" s="0">
+        <v>0.66685004510984436</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="0">
+        <v>181.5</v>
+      </c>
+      <c r="B1091" s="0">
+        <v>0.66640686420897577</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="0">
+        <v>181.66666666666666</v>
+      </c>
+      <c r="B1092" s="0">
+        <v>0.66628217885024532</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="0">
+        <v>181.83333333333334</v>
+      </c>
+      <c r="B1093" s="0">
+        <v>0.66781026054472814</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="0">
+        <v>182</v>
+      </c>
+      <c r="B1094" s="0">
+        <v>0.6667113086231875</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="0">
+        <v>182.16666666666666</v>
+      </c>
+      <c r="B1095" s="0">
+        <v>0.66118037214166525</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="0">
+        <v>182.33333333333334</v>
+      </c>
+      <c r="B1096" s="0">
+        <v>0.6600576887482682</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="0">
+        <v>182.5</v>
+      </c>
+      <c r="B1097" s="0">
+        <v>0.66012646159366095</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="0">
+        <v>182.66666666666666</v>
+      </c>
+      <c r="B1098" s="0">
+        <v>0.66094961141873121</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="0">
+        <v>182.83333333333334</v>
+      </c>
+      <c r="B1099" s="0">
+        <v>0.66234849113438932</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="0">
+        <v>183</v>
+      </c>
+      <c r="B1100" s="0">
+        <v>0.66160776988867443</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="0">
+        <v>183.16666666666666</v>
+      </c>
+      <c r="B1101" s="0">
+        <v>0.65672611354615418</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="0">
+        <v>183.33333333333334</v>
+      </c>
+      <c r="B1102" s="0">
+        <v>0.6561227108100891</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="0">
+        <v>183.5</v>
+      </c>
+      <c r="B1103" s="0">
+        <v>0.65589912162133468</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="0">
+        <v>183.66666666666666</v>
+      </c>
+      <c r="B1104" s="0">
+        <v>0.65496549663383341</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="0">
+        <v>183.83333333333334</v>
+      </c>
+      <c r="B1105" s="0">
+        <v>0.65470219781586536</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="0">
+        <v>184</v>
+      </c>
+      <c r="B1106" s="0">
+        <v>0.6543349477904642</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="0">
+        <v>184.16666666666666</v>
+      </c>
+      <c r="B1107" s="0">
+        <v>0.65340687647607376</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="0">
+        <v>184.33333333333334</v>
+      </c>
+      <c r="B1108" s="0">
+        <v>0.65328844585650314</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="0">
+        <v>184.5</v>
+      </c>
+      <c r="B1109" s="0">
+        <v>0.65381510794376174</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="0">
+        <v>184.66666666666666</v>
+      </c>
+      <c r="B1110" s="0">
+        <v>0.65417032097599936</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="0">
+        <v>184.83333333333334</v>
+      </c>
+      <c r="B1111" s="0">
+        <v>0.65545290984494686</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="0">
+        <v>185</v>
+      </c>
+      <c r="B1112" s="0">
+        <v>0.65725831464294715</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="0">
+        <v>185.16666666666666</v>
+      </c>
+      <c r="B1113" s="0">
+        <v>0.65820774263868931</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="0">
+        <v>185.33333333333334</v>
+      </c>
+      <c r="B1114" s="0">
+        <v>0.66038200396378377</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="0">
+        <v>185.5</v>
+      </c>
+      <c r="B1115" s="0">
+        <v>0.66255592627008053</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="0">
+        <v>185.66666666666666</v>
+      </c>
+      <c r="B1116" s="0">
+        <v>0.66427030033851797</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="0">
+        <v>185.83333333333334</v>
+      </c>
+      <c r="B1117" s="0">
+        <v>0.66563657179055302</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="0">
+        <v>186</v>
+      </c>
+      <c r="B1118" s="0">
+        <v>0.66617453725851339</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="0">
+        <v>186.16666666666666</v>
+      </c>
+      <c r="B1119" s="0">
+        <v>0.66404407633797502</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="0">
+        <v>186.33333333333334</v>
+      </c>
+      <c r="B1120" s="0">
+        <v>0.66583666162585364</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="0">
+        <v>186.5</v>
+      </c>
+      <c r="B1121" s="0">
+        <v>0.66865938779841605</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="0">
+        <v>186.66666666666666</v>
+      </c>
+      <c r="B1122" s="0">
+        <v>0.67118952065302606</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="0">
+        <v>186.83333333333334</v>
+      </c>
+      <c r="B1123" s="0">
+        <v>0.67227718339712739</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="0">
+        <v>187</v>
+      </c>
+      <c r="B1124" s="0">
+        <v>0.67272987397992301</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="0">
+        <v>187.16666666666666</v>
+      </c>
+      <c r="B1125" s="0">
+        <v>0.67219321459151871</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="0">
+        <v>187.33333333333334</v>
+      </c>
+      <c r="B1126" s="0">
+        <v>0.67389658459992885</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="0">
+        <v>187.5</v>
+      </c>
+      <c r="B1127" s="0">
+        <v>0.67554531702396314</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="0">
+        <v>187.66666666666666</v>
+      </c>
+      <c r="B1128" s="0">
+        <v>0.67652275306010412</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="0">
+        <v>187.83333333333334</v>
+      </c>
+      <c r="B1129" s="0">
+        <v>0.67743770895741384</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="0">
+        <v>188</v>
+      </c>
+      <c r="B1130" s="0">
+        <v>0.6772010455189974</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="0">
+        <v>188.16666666666666</v>
+      </c>
+      <c r="B1131" s="0">
+        <v>0.67333728126290215</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="0">
+        <v>188.33333333333334</v>
+      </c>
+      <c r="B1132" s="0">
+        <v>0.67337044834122328</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="0">
+        <v>188.5</v>
+      </c>
+      <c r="B1133" s="0">
+        <v>0.67560524857238447</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="0">
+        <v>188.66666666666666</v>
+      </c>
+      <c r="B1134" s="0">
+        <v>0.67733849642007782</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="0">
+        <v>188.83333333333334</v>
+      </c>
+      <c r="B1135" s="0">
+        <v>0.67872106790078879</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="0">
+        <v>189</v>
+      </c>
+      <c r="B1136" s="0">
+        <v>0.67940833784853716</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="0">
+        <v>189.16666666666666</v>
+      </c>
+      <c r="B1137" s="0">
+        <v>0.67804723804441802</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="0">
+        <v>189.33333333333334</v>
+      </c>
+      <c r="B1138" s="0">
+        <v>0.67280590073297175</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="0">
+        <v>189.5</v>
+      </c>
+      <c r="B1139" s="0">
+        <v>0.67055615536083935</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="0">
+        <v>189.66666666666666</v>
+      </c>
+      <c r="B1140" s="0">
+        <v>0.66960263191142966</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="0">
+        <v>189.83333333333334</v>
+      </c>
+      <c r="B1141" s="0">
+        <v>0.66728360106281026</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="0">
+        <v>190</v>
+      </c>
+      <c r="B1142" s="0">
+        <v>0.6632144583388907</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="0">
+        <v>190.16666666666666</v>
+      </c>
+      <c r="B1143" s="0">
+        <v>0.65857918826405126</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="0">
+        <v>190.33333333333334</v>
+      </c>
+      <c r="B1144" s="0">
+        <v>0.6569166052917822</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="0">
+        <v>190.5</v>
+      </c>
+      <c r="B1145" s="0">
+        <v>0.65684992011534726</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="0">
+        <v>190.66666666666666</v>
+      </c>
+      <c r="B1146" s="0">
+        <v>0.6572917755633636</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="0">
+        <v>190.83333333333334</v>
+      </c>
+      <c r="B1147" s="0">
+        <v>0.65790588429907915</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="0">
+        <v>191</v>
+      </c>
+      <c r="B1148" s="0">
+        <v>0.65600870796527055</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="0">
+        <v>191.16666666666666</v>
+      </c>
+      <c r="B1149" s="0">
+        <v>0.65320351909567487</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="0">
+        <v>191.33333333333334</v>
+      </c>
+      <c r="B1150" s="0">
+        <v>0.65331882878806014</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="0">
+        <v>191.5</v>
+      </c>
+      <c r="B1151" s="0">
+        <v>0.65444834433040644</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="0">
+        <v>191.66666666666666</v>
+      </c>
+      <c r="B1152" s="0">
+        <v>0.65647930892398743</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="0">
+        <v>191.83333333333334</v>
+      </c>
+      <c r="B1153" s="0">
+        <v>0.65860976807176652</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="0">
+        <v>192</v>
+      </c>
+      <c r="B1154" s="0">
+        <v>0.65917426669072321</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>